--- a/backend/data/bullpen.xlsx
+++ b/backend/data/bullpen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>방송</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>주작하는 그녀들 오늘 결방이면 뭐 해주나요?</t>
+          <t>내일 빨래방에 가서 세탁하기로 했습니다</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>꼰대가르송</t>
+          <t>홈플러스</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>생명보험 드는 인간들 진짜 한심하네요...</t>
+          <t>전 모욕죄, 사실적시 명예훼손죄 폐지하는 사람 뽑을 겁니다.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>만담꾼</t>
+          <t>피터파커</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>배구</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이재영한테 입질할 구단 과연 있을까요?</t>
+          <t>아이유 신곡 멜론 진입순위.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>아니아니야</t>
+          <t>...?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -570,27 +570,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>갠적으로 이명박보다 못생겼다고 생각하는 정치인</t>
+          <t>아 여자 캐스터가 중계하니까 별로네요 ㅠㅠ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>문징핑</t>
+          <t>이게야구냐</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -603,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>양념게장 먹을떄 다리는 버리나요 ??</t>
+          <t>싱어게인 33호 지리네요 ㅋㅋ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>크레스포</t>
+          <t>류감아웃</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -641,22 +641,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>결국 이대남 워리어들을 적으러 만든 결과죠</t>
+          <t>근데 조배숙인지 영입한거 확실해요?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>제롬느밴너</t>
+          <t>언제우승함</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,22 +674,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>교수출신 8명 + 가세연 믿다 66명 날라감 ㅋㅋㅋㅋㅋ</t>
+          <t>갤럽 20대 윤석열 9.5%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>카라킨</t>
+          <t>cetis11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -707,28 +707,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>점점 의심이 확신으로 바껴가는 홍준표 예언</t>
+          <t>한국갤럽 여론조사</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>정치몰라요</t>
+          <t>rnckdah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -742,22 +740,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>김한길을 선택한게 윤석열이니까 책임져야 됨</t>
+          <t>윤석열 부부까지 턴 공수처 “영장에 기초” 두둔한 박범계</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>갓희수</t>
+          <t>컹컹컹컹</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -770,32 +768,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>불페너 현직 술상.jpg</t>
+          <t>(서울신문-한국갤럽) 이재명 36.8% 윤석열 30.8% … 오차범위 경계로 격차 벌어져</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>김도련님</t>
+          <t>요키시</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -805,33 +803,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>음식</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>그럼 가세연이 공문서위조를 한건가요?</t>
+          <t>17시반에 주문한 도미노피자 아직도 못받음 ㅠ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ssen</t>
+          <t>FCMC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -840,27 +836,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>터키 아파트 사로가자.  ㅋㅋㅋ</t>
+          <t>인형같은 여자 아이돌.GIF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>나침판</t>
+          <t>도우너어서오고</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -878,28 +874,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이준석 복귀하면 전 아직도 이긴다고 봅니다.</t>
+          <t>박근혜 정부 역대급 대학살 사건.JPG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>호랑이조제</t>
+          <t>Ralphlauren</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -908,33 +902,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>축구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>벤투 부임 이후 사상 첫 a매치 맞대결이 많아졌네요</t>
+          <t>선수는 전광판을 안 본다는 비유는 도대체 무슨 지능으로 하는 비유일까요</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>四宮かぐや</t>
+          <t>A380</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -943,27 +935,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[트와이스] 팬영상을 바라보는 미나.gif</t>
+          <t>"이준석 물러나라"는 신평 "사퇴해도 이대남 안 빠져"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>미나</t>
+          <t>민주style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -981,27 +973,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>윤석열 후보 역전 1위 달성!!!!</t>
+          <t>이재명이 대한민국 75년 통틀어 비리로 최악의 후보같은데 비리 하나없는 윤석열이 여조에서 지는건</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>폴라포123</t>
+          <t>스물아홉</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1011,27 +1003,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LOL</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>젠지가 스크림에서 다 패고 다니는듯</t>
+          <t>이재명 36.8% 윤석열 30.8% … 오차범위 경계로 격차 벌어져</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>글러트니</t>
+          <t>누구신데요</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1046,31 +1038,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>방송</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>유재석 코로나 확진이후 첫 공식석상</t>
+          <t>가세연 하네요</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>레비나스</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1084,27 +1078,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>윤석열의 최대 장점은 확장과 오픈성</t>
+          <t>20대 여성 투표율 20대 남성보다 앞서는 추세</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>랑그릿사</t>
+          <t>레이먼드</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1114,27 +1108,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021년 올해 많이 들었던 남돌 노래들.swf</t>
+          <t>이제 진정한 밭갈이가 누구인지 판명났다고 봐야죠</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>황예지</t>
+          <t>로또풀인생</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1149,31 +1143,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>어떤 래퍼가 인터뷰로 말한건데 일반대중들이 랩을 잘한다는 기준을 모르는거같다</t>
+          <t>지금 이재명 지지자들이 윤석열 낙마하면 절대 안된다고 석열수호 지예수호 외치고 있음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>출렁뱃살</t>
+          <t>티티티티파파파파</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1182,32 +1178,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여행</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>이제 강릉 갈 준비 해야겠네요</t>
+          <t>토트넘 최전성기 jpg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No40한선태</t>
+          <t>궈넥</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1217,32 +1213,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>뉴스공장이나 가세연이나 다를바 없고 뉴스공장빠는 민주당 답없다고 생각했지만</t>
+          <t>치킨 1인 2닭 가능하신분 있나요?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>멜랑꼴랑</t>
+          <t>That'sit</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1252,33 +1248,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>프로토</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>오늘 니콜슨 결장이네요</t>
+          <t>윤석열은 문재앙딱갈이 맞아요</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>이게야구냐</t>
+          <t>Drkim</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1287,33 +1281,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>스포츠</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>페더러 모르는 테니스인 vs 메시 모르는 축구인</t>
+          <t>솔직히 김건희는</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>범퍼탈거</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1322,27 +1314,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>수원 아주대쪽 맛집 있을까요..?</t>
+          <t>한국인들 성격이 안좋은거 같아요</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>정은지</t>
+          <t>한여름이다</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1357,32 +1349,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>프로토</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>오늘 갑니다</t>
+          <t>여기서 젤 비싼술이 뭔가요?</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>오겜성기훈</t>
+          <t>댓글수집</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1397,28 +1389,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>후보교체 보다는 모양좋게 단일화가 좋죠</t>
+          <t>윤석열 민주당이 파견한 트로이 목마 아님?</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>달의몰락</t>
+          <t>BlackSheep</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1427,32 +1417,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>출산율 낮은데 대리모 합법화하면 좋겠네요</t>
+          <t>여론조사 전화오면 허경영 밀어줍시다.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>마빈게이</t>
+          <t>ViKiRaSt</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1462,32 +1452,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>공대가 답인 이유</t>
+          <t>김한길 의원 욕하기도 뭐한게...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>goodandbye</t>
+          <t>jikjik</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>266</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1502,28 +1492,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>윤석열 행보가 대단했다는 방증. jpg</t>
+          <t>김한길 영입해서 중용한거 보면 윤석열 인재보는 눈도</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>디스가든</t>
+          <t>밀레니엉</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>682</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1532,32 +1520,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>동물</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>아기 말이 달리는 모습.gif</t>
+          <t>카페 압수 수색 참나..</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>회장쿠옹류뚱</t>
+          <t>낭낭나</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1567,33 +1555,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>현 대학생 오늘 저녁 메뉴 사진입니다 (사진있음) jpg</t>
+          <t>가게 직원(오너및 종업원)들은 방역패스 면제인게 사실인가요?</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>홈플러스</t>
+          <t>말뚝이</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1607,27 +1593,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>가세연은 원래 시청자가 많은 방송인가요</t>
+          <t>이준석은 왜 이재명표절에는 입뻥긋안하나요?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CaoCao</t>
+          <t>보어</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1628,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>??? 가세연 폭로를 안믿는 사람이 있다고</t>
+          <t>찢찢찢찢 하면 감빵갈까요?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>얼그레이티</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1663,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>든든하네요  신지예같은  신예정치인을 영입하고 지원발언까지 받으니</t>
+          <t>김한길이 여기서 끝낼거 같죠?ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>마하반야</t>
+          <t>그러하다흠</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1705,32 +1691,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>'나일강의 죽음' 2/9일 개봉 확정</t>
+          <t>검찰총장 그만두고 쉴때 편의점 알바라도 쳐해보던가 했으면 이렇게까지 안됬을텐데</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>#RE2PECT</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1740,32 +1726,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>준석아, 니가 이대남을 대표한다면서?</t>
+          <t>중국녀 VS 일본녀</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>계몽운동</t>
+          <t>로컬보이</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>244</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1775,32 +1761,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>도미노피자 반값대란이네요... 1시간전에 주문했는데...</t>
+          <t>개인적으로 홍준연 워딩 엄청 맘에드는데</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FCMC</t>
+          <t>아르르</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1810,33 +1796,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>비빔밥에 이 중 한가지만 넣을수있다면?</t>
+          <t>It’s Gaseyeon time.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>로시</t>
+          <t>비샵</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1834,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>미드오픈하면 2030만 죽는다고요?</t>
+          <t>민주당 귀책사유로 인한 재보선 ‘무공천’ 철회</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>각도기보유</t>
+          <t>난계인이오</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1880,27 +1862,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>자동차</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>유튜브 - 55cm 폭설 미친 모델Y | 윈터타이어 | 속초 | 눈길주행</t>
+          <t>[일본] 코로나 신규 확진 398명 (12.29)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>샤로미</t>
+          <t>프로메테우스</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>141</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1913,32 +1895,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>안철수 신천 먹자골목 방문.LIVE</t>
+          <t>한우  오마카세는 가볼만한가요??</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>디다닥뽀닥</t>
+          <t>강변살자82</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1948,32 +1930,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>17금</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>윤 vs 찢은 핸디캡 매치라 윤이 절대적으로 불리하죠</t>
+          <t>뒷북 죄송한데...야한 글에 댓글 햇반이 무슨 뜻인가요</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>빤스러너</t>
+          <t>리드옵푸</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>646</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1983,31 +1965,33 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[트와이스] 사나 생일 팬아트.gif</t>
+          <t>문재앙 민간인 상대로 무더기 불법사찰 적발</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>미나</t>
+          <t>상냥한사람</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2016,27 +2000,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>어떤 래퍼가 인터뷰로 말한건데 일반대중들이 랩을 잘한다는 기준을 모르는거같다</t>
+          <t>윤석열 지지율 빠진게 페미문제는 두번째</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>출렁뱃살</t>
+          <t>앞마당</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2051,32 +2035,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>님들은 대선에서 어떤 승리를 원하는거임??(대깨문 제외)</t>
+          <t>아 오효주면 해설이라도 이숙자로ㅠㅠ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BirdSilver</t>
+          <t>처묵처묵</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2070,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>배구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(여배) 유투브 볼때마다 조송화 좀 위험하다 싶었는데 사단이 났군요.</t>
+          <t>제발 지금이라도 김한길 ,신지예 쳐내고 김종인 원톱에 홍준표 가세하는게 최선인데</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서머리</t>
+          <t>llllllllIl</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2121,32 +2105,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>수능 전국 수석이 영남대 의대로 진학?</t>
+          <t>진짜 최소 10년은 정치바닥에서 구른 사람이 대선 후보가 되었어야 함</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>말뚝이</t>
+          <t>불랑기포</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2156,32 +2140,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>미드오픈이라는건 진짜로 게임이 끝난겁니다</t>
+          <t>안물안궁은 도대체 언제적건데 쓰는사람잇는건가요</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>같은말</t>
+          <t>춤추고싶어</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2191,32 +2175,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>농구</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[NBA] 은퇴에 대한 생각을 밝힌 르브론 제임스</t>
+          <t>5시간 후면 60% 인상되는 쿠팡 와우</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>라이유우</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>497</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2226,32 +2210,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>이준석이 떡밥 안물면 그거 지뢰 라니깐요</t>
+          <t>초밥 22피스 먹기 쉽다 vs 어렵다</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>skiro</t>
+          <t>Kinglebron</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2261,31 +2245,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>정권 교체 최대의 걸림돌은 윤석열과 가세연.</t>
+          <t>갤럭시 중고폰 변경시 개인정보 변경 어찌하나요</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>아나스타샤</t>
+          <t>왕</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2294,32 +2280,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>절대 질수없는 선거라고 봤는데,이제 정말 질것같은 불길함이 감도네요.</t>
+          <t>소송에서 변호사만 가도 되나요?</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>눈팅만30년</t>
+          <t>팍스로마나</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>112</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2334,27 +2320,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>가세연은 어쨌거나 법적으로 불리할 일은 별로 없죠</t>
+          <t>이준석 간첩 타령 할거없이 윤석열 머저리도 간첩임</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>이불뚫고하</t>
+          <t>비다드</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2364,32 +2350,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>회사에서 열심히 일하고 나름 성과도 냈는데 위에서 인정안해줌 끝인가요?</t>
+          <t>민주당은 여전히 정신 못차리는중</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>바람속을</t>
+          <t>컨디션</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2399,32 +2385,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>나이 지긋하신분들은 과자 꿀짱구 왜케 좋아하나요?</t>
+          <t>윤석열 캠프에서 이대남은 어차피 찍으니 여자표 노리자는 말을 했다구요?</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>더스티로즈</t>
+          <t>밀레니엉</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2434,32 +2420,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>주식</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>안철수 테마주 들어갔는데 계속 들고 있어야겠죠?</t>
+          <t>지리산에서 반달곰 만나도 성인남자한테는 겁먹고</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>상도동</t>
+          <t>핀토스</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>114</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2469,31 +2455,33 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>동물</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>문재인 + 황교안 둘의 단점만 모은 게 윤석열이네요.</t>
+          <t>쥐나 고양이나 다를 거 없지 않나요?</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>꿈꾸는사람</t>
+          <t>SlowBull</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2502,31 +2490,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>역시 노래는 원곡자 감성 넘어서기 힘드네요</t>
+          <t>부패한데 능력은 있는놈 vs 무능한 놈.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>몰로하지</t>
+          <t>피터파커</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2535,32 +2525,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>보유세를 인상하면 임차인에게 전가될 수 밖에 없는 구조임</t>
+          <t>비방송 카메라 속 카리나</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>나야김케빈</t>
+          <t>떠돌이악사</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2570,27 +2560,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>나 던짐 ㅅㄱ를  틀들이 이해하기 어렵죠</t>
+          <t>냉정히 박병호 보내고 20억 받는게 남는 장사 아닌가요?</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>사랑하고있다</t>
+          <t>스폰지컵밥</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>323</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2605,32 +2595,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>나이들면 식욕이 떨어지나요??</t>
+          <t>대선 많이 남았습니다 결과 몰라요</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>늘푸른바다</t>
+          <t>히츠퍼플</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>278</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2635,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>롯본기 김교수같은사람이 딱 대깨문의 정석을 보여주는듯</t>
+          <t>조배숙 소속정당이 화려하네요</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>카엘</t>
+          <t>져킹</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>397</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2675,31 +2665,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[트와이스] 미나 쯔위의 하트.gif</t>
+          <t>아이유 앨범 후기</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>미나</t>
+          <t>qwerty1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2713,27 +2705,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>기성세대된 90년생이랑 나중에 20대랑 잘하면 치고 박겠네요.</t>
+          <t>이재명은 좌파 전두환이죠 미래가 보입니다.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>더락이즈</t>
+          <t>긴꼬리벵에</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2743,32 +2735,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>이러다 국힘당 후보 윤석열 질거 같은데</t>
+          <t>제글이 유투브에 떴네요......JPG ㄷㄷㄷㄷㄷㄷ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>져킹</t>
+          <t>만담꾼</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1,006</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2778,31 +2770,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>이 나라 정부는 코로나 관련해서 매번 어중간하네요</t>
+          <t>(긴급)오마이걸에 이 매력녀 이름이 뭐죠?</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>이성적으로</t>
+          <t>효정의그이</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2816,27 +2810,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>누굴 지지하고 안하고는 이미 정해져 있다고 봅니다</t>
+          <t>원희룡 강의 지리네요ㅋ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>프로메테우스</t>
+          <t>띠로리리리</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>422</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2845,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>대한민국 제1야당의 수준</t>
+          <t>편견일수도 있는데 중국 교포들중 자의식 과잉인 경우가 있던</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>asdfwer</t>
+          <t>IIIllIlIll</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2881,33 +2875,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>동선확인앱 이건 뭐임?</t>
+          <t>틀튜브가 수면위로 올라온다 =&gt; 개같이 멸망 공식이죠</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jkoua3</t>
+          <t>눈물비빔밥</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2921,28 +2913,26 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2030표 못받아도 상관없다, 이준석 선대위 나간거 오히려 호재다</t>
+          <t>클베들 아무리 욕해도 윤찍습니다만</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>alot</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>391</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2956,27 +2946,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>이재명 대통령 되면 인정 하십니까?</t>
+          <t>유투브 형수욕설영상 다 짤렸네요</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>COLA</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>335</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2991,27 +2981,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>사실 이재명이 되도 전 별로 상관없습니다. 왜냐하면</t>
+          <t>윤캠에서 홍준표컴백 원한다네요 ㅋㅋ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>darksn</t>
+          <t>우에인루니</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3021,33 +3011,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>윤석열 지지자들 찢해봐야 의미 없는데...ㅋㅋ</t>
+          <t>의사나 약사들이 공통적으로 오메가3 챙겨먹으라고 하네요</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>달구</t>
+          <t>zhfem</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3056,32 +3044,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>코인</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>코인판 망하면 가장 먼저 살 코인</t>
+          <t>[여배] 페퍼 1승은 생각보다 빨랐는데</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>이일삼</t>
+          <t>섭섭해</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3091,32 +3079,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>고민상담</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>전 윤캠이 지지율도 유지하고 이준석 영향력도 배제할 기회 있었다 봐요</t>
+          <t>자취방(지역) 고민입니다</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>20대난민</t>
+          <t>bodysayKIA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3126,32 +3114,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>축구</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>축구장도 구장마다 규격이 다 다르다는게 진짜인가요?</t>
+          <t>권나라 불가살 움짤 (역마기꾼 포함) gif</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>위즈붐</t>
+          <t>fnyhny</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>700</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3161,32 +3149,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>디센던트 이 영화 아시나</t>
+          <t>[여배] 다른 기사는 김형실 감독님이 조송화 요청했다는데</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>이제훈</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>256</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3196,32 +3184,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>아이유 조각집 앨범 곡 소개.txt</t>
+          <t>이쯤되니 천공스승이 가세연보다 나은듯;;</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Obliviate</t>
+          <t>멜랑꼴랑</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>265</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3219,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40대후반에 첫아이 보신분 계신가요</t>
+          <t>솔직히 304050분들이 윤 지지율 이대남 탓하는 건 좀 웃겨요</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>쇼미와츄갓</t>
+          <t>안녕히히</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>234</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3271,27 +3259,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>조중동에서 조선일보가 보수쪽 언론</t>
+          <t>찢은 대진운도 좋고 정치지형 운도 참 좋은게</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>스벅닉네임</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3301,27 +3289,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>영화</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>역사에서 노무현 문재인을  지우면</t>
+          <t>아메리칸 셰프 가족이 볼 영화 추천하시나요?</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>호디르</t>
+          <t>강남역삼</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3336,32 +3324,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>근데 20대 여자는 생각보다 힘 없네요</t>
+          <t>저는 무주택자인데 이재명 되면 어째야 될지 감이 안잡혀요.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>도리아</t>
+          <t>더락이즈</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3364,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20대 미드오픈 하래서 진짜 오픈하니까 난리났네요ㅋ</t>
+          <t>윤석열 보다 정무감각 방구석 불페너가 더 좋음 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>랑그릿사</t>
+          <t>아우스</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3406,33 +3394,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>새시대 대비위 비동의강간죄 발의자 조배숙 영입jpg</t>
+          <t>유유백서 솔직히 센스이 에피가 최고였습니다</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>정치몰라요</t>
+          <t>맞다</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>439</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3441,32 +3427,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>페미한테 너 페미니스트야? 라고 물으면 무례한가요?</t>
+          <t>수원 FC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>테헤란</t>
+          <t>Ceza</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>117</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3476,32 +3462,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>이재명은 대놓고 과거 한나라당 벤치마킹중임 ㅇㅇ</t>
+          <t>오늘 여배 네이버중계 없나요?</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>우울한새벽</t>
+          <t>라푸마</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3516,27 +3502,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>향후 5년을 지배하는 자?</t>
+          <t>최종 몇 % 득표 할까요?</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>아야톨라</t>
+          <t>오직 할뿐</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3551,26 +3537,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>안철수 곧 잠실새내역 신천 먹자골목 등장예정</t>
+          <t>김한길 “이대남 지지는 많은 편…젊은 여성층은 결정 못한 분들 많아”</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>프리퀀시60</t>
+          <t>ROKIS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3584,27 +3572,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>이재명 “대통령 아들은 남”</t>
+          <t>김한길 “이대남 지지는 많은 편…젊은 여성층은 결정 못한 분들 많아”</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>손혜원</t>
+          <t>ROKIS</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>799</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3614,32 +3602,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>시사</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>미국 공화당은 기후변화 긍정도 못하고 부정도 못하고 난처하네요</t>
+          <t>미국인들이 팬티를 갈아입는 주기. jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>적절한사람</t>
+          <t>이제훈</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>1,224</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3654,27 +3642,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>불펜에 가세연 믿는 분 많아요?</t>
+          <t>윤석열이는 대통령 못하게 막아야되는 사람 아닌가요?</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Roje</t>
+          <t>밀레니엉</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>214</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3689,27 +3677,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>이재명 아들</t>
+          <t>국힘 후보교체하는 명분이 왜 없어요?</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>케빈99</t>
+          <t>와일드카고</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3724,27 +3712,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>이재명 아들 헛다리 짚은 걸로 가세연 까봤자</t>
+          <t>그렇게 20대를 걱정하시면 후보를 바꾸시죠</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>블루모스크</t>
+          <t>지시준</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>183</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3759,22 +3747,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>가세연이 이준석 사냥하면 상징성 측면에서 보수원탑맞죠?</t>
+          <t>홍준연도 윤석열 손절할 정도면 겜 끝난거지</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>법무사</t>
+          <t>티티티티파파파파</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>310</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3789,32 +3777,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>거리두기 2주연장이네요</t>
+          <t>배달하시는분 외국분 오시니깐 당황스럽네요.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jkoua3</t>
+          <t>늑돌이</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>291</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3824,27 +3812,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>제가 민주당 정서는 잘 모르는데 찢 왜 지지할까요</t>
+          <t>강원랜드 여권 입장되나요?</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>사이온지</t>
+          <t>롯데프런트</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3864,28 +3852,26 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>오늘 가세연이 영상 까나요?</t>
+          <t>국힘쪽에서 내분 많은 이유? 쉽죠</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>qwerty678</t>
+          <t>최고의극찬</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>462</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3894,33 +3880,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>한국과 일본의 국격의 차이...</t>
+          <t>[트와이스] Who can drink more sparkling water in ONE SIP? - 지효 나연</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>사과쥬스</t>
+          <t>미나</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3929,32 +3913,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>유머</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>조선일보는 긴장해야겠네요.</t>
+          <t>소고기가 없는 나라 아시나요?</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>누구신데요</t>
+          <t>김택진</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3964,32 +3948,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>당신이 가난한  이유</t>
+          <t>아직도 윤석열이 보수라고 생각하는 사람들이 있군요</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>호디르</t>
+          <t>꾀감동</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3999,32 +3983,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>크롬화면 설정방법좀 알려주세요</t>
+          <t>윤석열 사시 9수한거 자체가 자기 잘못을 고칠줄 모르는 인간이라는 증거였네요..</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>오랑캐z</t>
+          <t>llllllllIl</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>494</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -4034,33 +4018,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>콘돔장사 출신이랑 하버드법대 출신이랑 같은급이냐?</t>
+          <t>거리두기 연장으로 자영업자들 막타치겠네요</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>비샵</t>
+          <t>롱기누스</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4069,33 +4051,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>이재명, 석사 논문 표절 인정 “인생에 필요 없다, 취소해 달라”</t>
+          <t>동물 채널 조회수 안나오는곳은 계속 안되네요</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>컹컹컹컹</t>
+          <t>리드옵푸</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>362</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4109,27 +4089,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>김어준은 극혐하면서 강용석은 의인 취급하는 게 너무 웃기네요.</t>
+          <t>이재명 아들 고대입학건 의혹?</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>꿈꾸는사람</t>
+          <t>록리</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>366</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4139,31 +4119,33 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>농구</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>이재명의 중도 확장성</t>
+          <t>생방송 몸매 레전드.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>백루타예약</t>
+          <t>ㅡ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
+          <t>2,280</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4172,32 +4154,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>가세연VS준스톤 정배 어딘가여???????</t>
+          <t>제네시스 실내 뭐가 젤 낫나요.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>푼푸</t>
+          <t>블로썸</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>625</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4207,31 +4189,33 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>야구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>크보 임시결번 현황</t>
+          <t>아니 검찰총장 그만두고 몇달쉴때 공부안하고 뭐했나요?</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>kdka</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4240,32 +4224,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>손연재 트와이스 가면 외모로 몇등입니까??  .jpg</t>
+          <t>드라마 엉클 재밌네요</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>dksmtmvhfk</t>
+          <t>20Vinicius</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4275,32 +4259,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>동물</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>아기 코끼리의 애교.gif</t>
+          <t>아이유 조각집 너무 좋네요</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>회장쿠옹류뚱</t>
+          <t>king_no.1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>523</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4315,27 +4299,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>윤석열 입당 4달만에 당이 박살났는데 대깨윤이 프락치죠</t>
+          <t>오늘자 윤석열 캠프에서 영입한 조배숙 업적 ㄷㄷㄷㄷㄷ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>프리드먼</t>
+          <t>폴라포123</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>895</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4345,33 +4329,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>게임</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>현대 미술 vs 4살 아이 낙서.jpg</t>
+          <t>찢어진 옷 겨우 붙잡는 게임</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>보고</t>
+          <t>나코다리찜</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4380,32 +4362,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>국힘은 왜 가세연따위 믿다가 이재명에게 털리나요</t>
+          <t>연고대공대 다니는 후배가 삼전에 붙었는데</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>눈물비빔밥</t>
+          <t>말뚝이</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>411</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4415,27 +4397,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>스시가 원가대비 엄청 이익높죠?</t>
+          <t>이정도면 여자집안 어느정도인가요???</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>도리아</t>
+          <t>키코기증</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4450,32 +4432,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>아프리카TV 근황.jpg</t>
+          <t>이준석은 송영길 비서실장이 천직이죠.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>엘도라도™</t>
+          <t>도토리0</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1,789</t>
+          <t>143</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4485,32 +4467,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>여행</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>40분 후 팝콘각.....jpg</t>
+          <t>전에 올린 도쿄에서 맛있게 먹은 장어덮밥집 위치랑 상호명 올립니다.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>레비나스</t>
+          <t>중앙지검장</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1,608</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4520,32 +4502,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>현재 으르신들 근황.jpg (feat. 한강 코난)</t>
+          <t>서예지 복귀</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>강을따라</t>
+          <t>로컬보이</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>565</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4560,27 +4542,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>'김건희는 사과했는데' 질문에...이재명 "아들은 남이다"</t>
+          <t>하태경, 홍준연 윤석열한테 다 한소리 했네요</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>컹컹컹컹</t>
+          <t>Roje</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4595,27 +4577,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>지금 2030은 나중에 대통령을 한번 만들기는 할겁니다</t>
+          <t>저런 가세연 결과보면서</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>후새드</t>
+          <t>학교가자</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>671</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -4625,33 +4607,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>농구</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>이제 윤석열로는 패배가 확실시되니까 2030 공격이 나오기 시작하네요</t>
+          <t>NBA에서 뛰는 와타나베 유타가</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>alot</t>
+          <t>kim0323</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4660,32 +4640,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>신지예 "지지율 높으면 토론 안해..필요 없으니"</t>
+          <t>[여배] 페퍼 김형실 감독 "조송화는 밝은 우리팀과 안맞음 필요없다"..gisa</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>타스오디라</t>
+          <t>더스티로즈</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>401</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4695,32 +4675,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>윤석열은 일단 요리 프로 집어치우시길</t>
+          <t>신혜선 어쩔티비쥬 영상 277만뷰ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>aphill</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>724</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4730,32 +4710,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>서울 아파트 월세값 124만원 역대최고</t>
+          <t>이대남이 페미 데려와도 자기를 지지해줄거로 안 윤핵관과 윤석열 진짜 바보인가요?</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>zxcvbnm1</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4765,32 +4745,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>17금</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>이재명은 도덕성으로 공격해서 될게 아니에요</t>
+          <t>왜 중국 작품은 일본에 비해 별로인가요?</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>드리머</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>381</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4805,28 +4785,26 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>후보교체가 비현실적이라는 거 다들 알지 않나요</t>
+          <t>니가 가라 청와대 게임의 승자가 결정된 것 같군요</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>csmj197</t>
+          <t>전환형펀드</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4835,32 +4813,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>이재명이 진짜 영악한게 쿨하게 인정하는척 하면서 사안을 완전히 축소해서 얘기합니다</t>
+          <t>무명은 박명수가 정말로 길지않았나요?</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>tolgate</t>
+          <t>평생동정남</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4875,27 +4853,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>안철수가 절대 단일화는 없다고 조선일보 유튭에서 말하네요</t>
+          <t>윤석열이 영입하는 조배숙 의원이 만든 성매매녀 지원법안</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>프리퀀시60</t>
+          <t>gs불매</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>115</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4905,27 +4883,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>당정, 거리두기 2주 연장한다…9시 제한 그대로·심야영화 허용</t>
+          <t>나름 예쁜 jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>boazzang</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>450</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4940,32 +4918,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>찢이 되는건 작전세력한테 설거지 당하는거나 마찬가지죠</t>
+          <t>설강화.잼나다고 해서 시청예정입니다.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CaoCao</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4980,27 +4958,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>님들 진짜 양심껏 대답좀요 문재인</t>
+          <t>김한길을 정도전이라고 보면 되나요?</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>purpose19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -5010,32 +4988,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>정부의 사회적 거리두기가 지나치다는분들은 필독하시길</t>
+          <t>유재석 코로나 걸린거 왜 욕안먹나요??</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>이성적으로</t>
+          <t>만담꾼</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>318</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5050,27 +5028,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>가세연에 낚인 66명의 국힘 의원들 ㅋㅋ.jpg</t>
+          <t>윤석열 끝났네요.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>문니친</t>
+          <t>SSG</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1,813</t>
+          <t>818</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5080,32 +5058,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>페미 인사 영입에 화난 분들에게 한 말씀 드리겠습니다.</t>
+          <t>이재명이 생각보다는 더 잘할지도 모르죠</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>potentk</t>
+          <t>껄루기</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5115,32 +5093,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>다급해진  조선~~!!!</t>
+          <t>야구장 외야 담장높이 30m로 해도 허용되나요?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>podoo</t>
+          <t>아리메카노</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>243</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5150,33 +5128,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>이준석이 무엇에 대해 허위사실 고소인지 중요</t>
+          <t>아이유 조각집 앨범 겨울잠과 정거장 오래 듣겠네요</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>drfgyghh</t>
+          <t>Draxler</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5190,27 +5166,27 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>가세연이 국힘 기관지잖아요</t>
+          <t>이대남 버려서 여성표 끌어왔으면 인정인데 현실이 어케됬죠?</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>누구신데요</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5220,32 +5196,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>이대남들이 눈만 높아서 취업 못한다는 것은 그만큼 통찰이 부족하다는 소리죠.</t>
+          <t>윤석열 리즈 시절은?</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>킹타이거</t>
+          <t>오직 할뿐</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5255,27 +5231,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>국힘 찢재명 아들 논란 관련 정정 보도.jpg</t>
+          <t>설강화에 나온 빽그라운드 뮤직</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>굿럭감사</t>
+          <t>김부선</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5288,31 +5264,33 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>박주민이 이재명 아들 대학입시관련 국힘 66명 의원명단 공개했네요</t>
+          <t>[오마이걸] 효정이 n행시 ㅋㅋ</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LIKE</t>
+          <t>zxc124</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -5321,31 +5299,33 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[아이즈원]민주 따란모음</t>
+          <t>성매매 여성 지원 거부 홍준연 의원 페이스북.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>인왕</t>
+          <t>케이준</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
+          <t>1,243</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5359,27 +5339,27 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>정권교체 해야되는데 이번 대선도 힘들거 같네요</t>
+          <t>좌파는 맨날 헛다리 찌르는디 국힘은 왜</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>OldEnglish</t>
+          <t>비샵</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5394,26 +5374,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"이재명, 아들 성매매 의심받자 '남'이라고 버려"</t>
+          <t>가세연에 낚인 명단에 김웅 배현진 조수진 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>컹컹컹컹</t>
+          <t>뚜벅이</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -5427,27 +5409,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>김남국 법무부장관 확정인가요?</t>
+          <t>윤석열캠프 김민전 선대위원장 YTN 나가서 한 발언</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>문징핑</t>
+          <t>카라킨</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>911</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5457,32 +5439,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>짤방</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>아이유 인생샷.jpg</t>
+          <t>복심 윤건영 "국힘이 힘든 이유"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>스칼렛위치</t>
+          <t>로자</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1,002</t>
+          <t>526</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5492,31 +5474,33 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[트와이스] 틋스타 다현.jpg</t>
+          <t>가세연 보는 사람들은</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>미나</t>
+          <t>Roje</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5525,32 +5509,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>올해 마지막 나이키 드로우 득했네요 ㅠㅠ</t>
+          <t>윤석열 진지하게 스파이 아닌가요? 어떻게 이걸 말아먹지</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>드록신경배</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5560,32 +5544,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>주식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12년만에 배당락일 코스피가 처음 내렸네요</t>
+          <t>간절함이 더 강한쪽이 이기기 마련입니다</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>14279517</t>
+          <t>고양이솜</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>271</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5595,33 +5579,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>지금 윤석열 지지자 중 상당수는 정권교체 희망자 아닌가요?</t>
+          <t>천조국 tv 프로그램ㅋ</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>날핀</t>
+          <t>leekun</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5635,27 +5617,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>정동영, 천정배 영입에 대해서는 얘기를 안하네요?</t>
+          <t>김민전 공동선대위원장이 말하는 부정선거 마냥 헛소리로 분류해서는 안됨</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>parkeb</t>
+          <t>멜랑꼴랑</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>295</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5665,27 +5647,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>찢이 나라망칠것같으시면 달러도 괜찮습니다.</t>
+          <t>근데 유재석 무명시절 엄청 짧은거 아닌가요</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>평생동정남</t>
+          <t>스물아홉</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>213</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5700,31 +5682,33 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>시사</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>가세연 동영상 이상과 현실</t>
+          <t>탈모가 빠지면 머리가 안나는게  아니라...</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>이의신청서</t>
+          <t>곽민주</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -5733,32 +5717,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>연예</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>이분들 누군지 아시는 분? 알면 아재?</t>
+          <t>[여배] 오늘 페퍼는 거의 한텀 쉬어가는 경기라네요.....txt</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>buleseye</t>
+          <t>더스티로즈</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>357</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5773,26 +5757,28 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>우리구 의료가 아닌 코로나 대응 시스템 붕괴네요</t>
+          <t>카페 압수 수색  참나..</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>아토르</t>
+          <t>낭낭나</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -5801,31 +5787,33 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>시사</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>자진사퇴 아니면 안하고 단일화 이 두개밖에없다</t>
+          <t>윤석열에서 국민당 대선후보 바꾸면 망한다는 근거가 뭔가요?</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>물리</t>
+          <t>헬맛</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -5839,27 +5827,27 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>사람들 윤석열격어보니 문재인이</t>
+          <t>윤석열 하는 꼬라지를 보면 차라리 대선에서 지는 게 낫다고 보는 입장입니다.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>purpose19</t>
+          <t>꿈꾸는사람</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>546</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -5874,28 +5862,26 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>도대체 이재명 아들 문제는 왜 자꾸 제기하나요</t>
+          <t>결백을 연기하는 법</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>백루타예약</t>
+          <t>LifeIsArt</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5904,32 +5890,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1시간뒤 불펜 상황......</t>
+          <t>여배 흥국 페퍼 오늘경기 재밌을거 같습니다</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>폴라포123</t>
+          <t>광어우럭땅</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>226</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5939,27 +5925,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>동물</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>여자들 네일샵도 멀어도 자기한테 맞는곳으로다니나요?</t>
+          <t>매일  관리받는 고양이.gif</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>푸른초원길</t>
+          <t>회장쿠옹류뚱</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>577</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5979,27 +5965,27 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>후보교체는 말도 안되는 소리지만</t>
+          <t>윤, 아내가 실수를 해서 국민께 송구합니다.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>아야톨라</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>564</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6014,27 +6000,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>윤석열로 단일화하면 단일화된 지지율도 깍아먹을 인간이 윤석열</t>
+          <t>준서가. 이제 좀 나가자</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>OldEnglish</t>
+          <t>비샵</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6049,27 +6035,27 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>이번 대선은 전국민 개돼지 테스트 아닌가요</t>
+          <t>박근혜 탄핵될 때, 윤석열 후보 교체될 때</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Geron</t>
+          <t>봄빛깔</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6079,32 +6065,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>이준석 내치고 네거티브라도 집중해야죠</t>
+          <t>신혜선은 무슨 행동인지 알고 찍었을까요?</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>야간개방</t>
+          <t>거미가줄</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>1,089</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -6114,32 +6100,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>공수처, 윤석열·김건희 통신조회…'尹최측근 3인'도 타깃</t>
+          <t>한달 빡센 다이어트 후 치팅데이 음식 추천좀요</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>입금완료</t>
+          <t>처묵처묵</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -6154,27 +6140,27 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>국민의힘 근황....jpg</t>
+          <t>사시 9수 했다는데서 고집불통 눈치챘어야 하는데</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>소소한</t>
+          <t>한신포차7</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,487</t>
+          <t>357</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6184,32 +6170,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>섹스톤이  느바선수 말하는거 아니죠?</t>
+          <t>이준석 끝났네요</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>mclarengtr</t>
+          <t>지시준</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>1,007</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -6219,32 +6205,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>월세 10만원 더낼게 이거 55 45가될려면</t>
+          <t>서울 많이 추운가요?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>레드썬더</t>
+          <t>뮌헨</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>167</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6254,33 +6240,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>36살이면 노처녀 인가여?</t>
+          <t>[아이즈원] 히토미 엠넷 재팬 2021  시상 mc  중계방</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>적합한별3</t>
+          <t>블루모스크</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6294,27 +6278,27 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>이준석이 축차투입으로 꼬라박지 말라고 그렇게 이야기 했는데</t>
+          <t>솔직히 대한민국은 인프라도 튼튼하고 보수 진보 사회 곳곳에 골고루 포진해서 누가 되든 망하지는 않아요.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>카라킨</t>
+          <t>dud3000</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>133</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6324,33 +6308,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>여행</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2월 둘째주 제주도 여행가면 많이 추울까요?</t>
+          <t>연말 가요시상식 출연하는것 자체가 대단한거죠?</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>모범택시</t>
+          <t>항상감사함</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6359,32 +6341,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>솔직히 홍 윾 원 셋중 아무나 올라왔어도 이꼬라지까진 안갔을텐데요</t>
+          <t>자강두천..gif</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>누구신데요</t>
+          <t>댓글수집</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>648</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6394,32 +6376,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>이준석이 아무리 개삽질을 해도 윤석열이 제대로 공약 발표하고 이슈 몰이 하면 그냥 묻혀 버리죠.</t>
+          <t>체육관 10시까지 해줘도 숨통 트일텐데</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>아나스타샤</t>
+          <t>흉스</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6429,27 +6411,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>펌글</t>
+          <t>프로토</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>저출산대책 내놓은 창원시 페미니스트 반발로 취소</t>
+          <t>배팅.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>정치몰라요</t>
+          <t>닭</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6464,32 +6446,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>아이유 미니엘범 조각집 음감 후기</t>
+          <t>썰전 라이브 국힘 아줌마 말 끊는거 극혐이네요</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PRabbit</t>
+          <t>scorsese</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6499,32 +6481,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3차접종 의무 아니죠?</t>
+          <t>무능의 끝판왕</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Geron</t>
+          <t>나다</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2021.12.29 18:12</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>242</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6539,27 +6521,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>불펜 국힘갤러들한테  무야홍하니 딜잘박히네요</t>
+          <t>이준석 날리고 가세연의 정보 믿은 국민의힘 결과</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>풀소유재앙</t>
+          <t>폴라포123</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>848</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6574,27 +6556,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>여기서 열올리면서 글써봐야 바뀌는건 하나도 없음</t>
+          <t>진짜 한대 때리고 싶네요</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>니모나</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>261</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6604,32 +6586,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>거를타선이 없는 노빠꾸 ㅂ맛 기사제목 ㄷㄷㄷ JPG.</t>
+          <t>나는 누구 여긴 어디..gif</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>푼푸</t>
+          <t>댓글수집</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>486</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6639,33 +6621,31 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>농구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>이현중 NBA 주전되면 경기 본다 vs 안본다</t>
+          <t>국힘은 월등한 1인자가 있어야 됩니다</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>오직 할뿐</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6674,32 +6654,32 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>방송</t>
+          <t>음식</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>옥문아 심이영 남편 키스신 원래있는건지 애드립인지 몰래 확인했다고</t>
+          <t>실시간 혼술상.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>STOO</t>
+          <t>파울라너</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>476</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6714,22 +6694,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>아들은 남이라고?.jpg</t>
+          <t>가세연 멀쩡한(?) 노인들도 많이 봐요.</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>프리티벳</t>
+          <t>지명일순위</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>101</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -6742,32 +6722,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>유머</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>회사에 입고다닐수가 없었던 점퍼.jpg</t>
+          <t>유재석은 조금 늦게 뜬게 본인한테는 더 이득인거 같네요</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ak474</t>
+          <t>STOO</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1,765</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6777,32 +6757,32 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>응원</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>이재명이 필요없다고 한 석사 학위를 가지고 두번이나 후보 등록 때 썼었군요.</t>
+          <t>2011년 이전 가입자 계십니까?</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Opus1</t>
+          <t>현수야이거좀만져봐</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -6812,32 +6792,32 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>국힘 이재명 아들건으로 반성문 썻네요. 가세연ㅋㅋㅋㅋㅋ</t>
+          <t>태종이방원 이숙번</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>카라킨</t>
+          <t>kdka</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>328</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6847,32 +6827,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>프로토</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>후보교체하면 지지하겠다는 분들....</t>
+          <t>오늘의 국경뱃.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>입금완료</t>
+          <t>하스스톤</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6882,31 +6862,33 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>역사</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>기밀해제된 디지털 기록 보관소 문서..(6.25)등 사료..05편</t>
+          <t>불펜 정치글들 중에 최악의 글 ㅇㅇ</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>간담브이</t>
+          <t>테헤란</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -6915,32 +6897,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>채소 제일 많이 먹는 나라가 어디일까요?</t>
+          <t>윤석열 페미에요?</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>동물말머리</t>
+          <t>헛개차</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6950,32 +6932,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>단문</t>
+          <t>역사</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Z플립 막상 써보면 불편한가요?</t>
+          <t>만약 최영이 위화도로 갔다면??</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>모르는형님</t>
+          <t>오버마인드</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6985,32 +6967,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>프로토</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>(배구) 연승도전</t>
+          <t>윤캠 김민전 YTN 라디오에서) 지난 총선에 의구심 있어</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>문정원</t>
+          <t>카라킨</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>417</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7020,27 +7002,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>강용석하고 이준석 지니어스같이나왔었다면</t>
+          <t>신혜선 , 신동엽 케미 . mp4</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>wjdtn</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>443</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7055,32 +7037,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>윤 왜 9수 했는지 알겠어요</t>
+          <t>골때녀는 일단 전후반 진영바꾸기부터 해야지않나</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>purpleman</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>183</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7095,28 +7077,26 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>밭갈이니 드루킹이니ㅜ해도 메이저 언론 먹힌게 가장 크죠</t>
+          <t>안철수 입장에서 단일화는 안해도 그만이고</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>COLA</t>
+          <t>촙촙</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7125,27 +7105,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>VS</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>리그우승+챔스우승+발롱도르 vs 월드컵우승+골든부츠</t>
+          <t>털보는 적어도 자기 진영에 해되는 일은 안하죠.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>블랙팬서</t>
+          <t>mfgh</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -7158,32 +7138,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>병원 갔다가 생각지도 않았던 달력 받았네요..ㅎㅎ</t>
+          <t>날렵해진 김정은.jpg</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>No.5</t>
+          <t>류현진친척</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>654</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -7198,27 +7178,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>이준석 논란은 선후관계를 제대로 알지 못하면 절대 해결할수가 없음</t>
+          <t>'윤석열 교체하라'가 70.4%ㄷㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ROKIS</t>
+          <t>주전충</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1,297</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7228,32 +7208,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>고민상담</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>이재명, '아들 입시' 허위사실 유포 의원 고발 예고</t>
+          <t>전직장 공장장님이 돌아가셨다는데 갈까말까 고민되네요.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>블루모스크</t>
+          <t>ak474</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>226</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7268,26 +7248,28 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>조선일보 안철수 LIVE</t>
+          <t>대한민국의 2,30대의 다가올 미래 고찰</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>디다닥뽀닥</t>
+          <t>oa1004</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -7296,32 +7278,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>공무원 야근수당 결국 터졌네요</t>
+          <t>아이유 소품집 러브레터 델루나ost아니네요</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>수박수박</t>
+          <t>키움꺼져라</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:39</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1,498</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7331,31 +7313,33 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>돈룩업) 판단이 힘들었던 몇 가지 잔상들...그리고...(스포 많아유)</t>
+          <t>한국사람이 인성이 제일 하급인것 같습니다.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>sotkfkdtngus</t>
+          <t>리드비나</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -7364,32 +7348,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>헬스장에 키 180중반에 몸좋은 잘생긴남 있는데</t>
+          <t>이대남 버려서 지지율 올라갔으면 인정인데 버리고나서 폭락이죠</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>아레나도.</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>252</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7399,32 +7383,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>윤석열은 문재인이 탁란한 뻐꾸기입니다.jpg</t>
+          <t>오늘 마지막회인 예능 . jpg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>alot</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1,118</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7439,27 +7423,27 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>틀튜브 소개쫌 부탁드립니다.</t>
+          <t>지금이라도 동네 바보형 이미지로 가는건 어떤가요</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>로츈강류</t>
+          <t>비질란태</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7469,32 +7453,32 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영화</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NBA 데미안 릴라드, 방탄소년단 슈가에게 감사의 영상 편지 전해</t>
+          <t>보헤미안랩소디 영화 명작인가요</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>투루시</t>
+          <t>나와너우리</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>242</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7504,32 +7488,32 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>이준석 동영상이 있을것 같아요?</t>
+          <t>kb 트레이드 얘기를 들었는데</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>프렐류드</t>
+          <t>신지후</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7539,32 +7523,32 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>주식농부 박영옥</t>
+          <t>이재명 지지율 박스피 여도 최대 45%득표 가능하지 않나요</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>하루아메</t>
+          <t>스물아홉</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>319</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7574,33 +7558,31 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>이재명 삼프로 효과 반영하면 지지율 더 올라가겠네요</t>
+          <t>[트와이스] 행복한 미나(feat.채영 ).gif</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>드리머</t>
+          <t>미나</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -7609,32 +7591,32 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>가세연은 준석이 왜캐 시러한대요?</t>
+          <t>무능열에서 안철수로?</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>purpose19</t>
+          <t>타스오디라</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7644,32 +7626,32 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>이거 스미싱이죠?.jpg</t>
+          <t>브라질은 참 잠재력에 비해 경제가 별로네요</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>인간극장</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -7679,32 +7661,32 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>연예</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>곧 컴백하는 슈스케5 준우승 볼트좌 박시환 근황</t>
+          <t>이준석이 김건희 중매해줬나요?</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>아빌립아폴</t>
+          <t>alot</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2021.12.29 18:06</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>353</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7719,27 +7701,27 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>이재명 군가산점은 특혜다.JPG</t>
+          <t>인천 여경 사건 CCTV 확인jpg.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>오옥복주</t>
+          <t>mlbparkkk</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2021.12.29 18:06</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1,023</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7749,32 +7731,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>여자 검정색 속옷과 호피 속옷이 야하게 느껴지는 이유가 뭘까요?</t>
+          <t>가세연이 삽질한거중 하나 에이프릴 왕따때도 있죠</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>육덕여신</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2021.12.29 18:06</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7784,27 +7766,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>혹시 빨라쪼 라는 아이스크림 브랜드 아시나요?</t>
+          <t>구멍을 통과하는 구슬.gif</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>글든지</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2021.12.29 18:06</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>698</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7824,22 +7806,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>보수가  살려면 자진사퇴 운동 하자</t>
+          <t>국힘이나 국힘지지자는 일베 손절 못한거 패착아님?</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>놀세</t>
+          <t>40HRp.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2021.12.29 18:06</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7854,32 +7836,32 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>주번나</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>내복 바지가 좀 작은데 입다 보면 늘어 나나요?</t>
+          <t>누르고 싶은 젖꼭지나 보고들 가세연~ 2탄</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>보건복지겸</t>
+          <t>긴꼬리벵에</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>681</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7889,32 +7871,32 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>이재명 석사 논문 표절 인정</t>
+          <t>철제 프레임 침대 써보신분??</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>메비우스7</t>
+          <t>오선진</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7929,27 +7911,27 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>가세연이 저런다고 끝날거 같아요? ㅋㅋ 절대 안끝남 쟤넨</t>
+          <t>선대위 꼬라지 보세요</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>주나</t>
+          <t>shdjnr</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7959,32 +7941,32 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>시사</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>이재명 아들들 부정입시 주장도 구라였네</t>
+          <t>삼프로 한번도 안봤는데</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>물리</t>
+          <t>June</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>459</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7994,32 +7976,32 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>지금 듣는 노래.jpg</t>
+          <t>윤석렬은 대통령되기 싫은가보네요.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>에미넴</t>
+          <t>족발파는형식이</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>296</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8029,32 +8011,32 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>늙은거 실감날때</t>
+          <t>2017년 이재명 대선주자 인터뷰.JPG</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>세계명작AV</t>
+          <t>오옥복주</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>265</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8064,31 +8046,33 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>문재인 대단한게 이대남들을 디스토피아로 인도함.</t>
+          <t>아이유 신곡듣다가 버스에서 눈물고임...ㅜㅜ</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>더락이즈</t>
+          <t>고등어회</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -8102,27 +8086,27 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>윤석열 지지율떨어지는거보고 느낀점</t>
+          <t>애국보수분들 왜 좌파 동교동계 퇴물 영입에는 입 꾹 닫나요?</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>wjdtn</t>
+          <t>프리드먼</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -8132,32 +8116,32 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>연예</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>트와이스 멤버 개인 당 50억 벌었을까요??</t>
+          <t>이대남 버려서 여성표 들어왔으면 인정합니다</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>트레비</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>299</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8167,33 +8151,31 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>안철수로 결정하긴 했는데 단일화 할까요?</t>
+          <t>검찰이나 법원이 대통령 눈치보나요??</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>풍신풍림류</t>
+          <t>skfk</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -8202,32 +8184,32 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>허위사실에 의한 명예훼손고소라네요. 이제 뭐라고 하려나 ?</t>
+          <t>피자헛 시키려다가 도미노도 50퍼네요</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>LIKE</t>
+          <t>키자루</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>218</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8237,32 +8219,32 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>아이유 멜론 Special Photo</t>
+          <t>국힘 모질이들 또 삽질한거죠?</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>한화LA응원</t>
+          <t>elf-secret</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>355</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8277,25 +8259,647 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>찢 못이겨요</t>
+          <t>정치 잼있지?</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>qazwsxed</t>
+          <t>비샵</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>솔직히 머리 깨지신분들이 가세연 욕하는건 말이 안되죠...</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>더스티로즈</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>질문</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>자동차 시동 오래걸어놓으면 자동으로 꺼지나요??</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>컈초보</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>물들어 올때 노젓는 조원진.jpg</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>케이준</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>G80 인증입니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>유령일신</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>가세연 김세희대표 포즈 이게 무슨 뜻이에요?</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>헛스윙삼진</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>농구</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>담원의탑은 누가먼저 나오려나요?</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>정정우</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>방송</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>주작하는 그녀들 오늘 결방이면 뭐 해주나요?</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>꼰대가르송</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>생명보험 드는 인간들 진짜 한심하네요...</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>만담꾼</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>배구</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>이재영한테 입질할 구단 과연 있을까요?</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>아니아니야</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>갠적으로 이명박보다 못생겼다고 생각하는 정치인</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>문징핑</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>양념게장 먹을떄 다리는 버리나요 ??</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>크레스포</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>결국 이대남 워리어들을 적으러 만든 결과죠</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>제롬느밴너</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>교수출신 8명 + 가세연 믿다 66명 날라감 ㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>카라킨</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1,518</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>점점 의심이 확신으로 바껴가는 홍준표 예언</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>정치몰라요</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>김한길을 선택한게 윤석열이니까 책임져야 됨</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>갓희수</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>음식</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>불페너 현직 술상.jpg</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>김도련님</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>그럼 가세연이 공문서위조를 한건가요?</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>ssen</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>터키 아파트 사로가자.  ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>나침판</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/backend/data/bullpen.xlsx
+++ b/backend/data/bullpen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>한국은 민도가 왜 낮나요</t>
+          <t>윤석열은 그냥 미련곰탱이에요</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>한여름이다</t>
+          <t>카락스캐논</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:36</t>
+          <t>2021.12.30 18:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>적군이 근처까지 왔는데 윤석열의 모습</t>
+          <t>폰이 본인명의 아닐 경우, 종이증명서로 식당 같은곳 패스되나요?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>팅커테일러</t>
+          <t>숭구리</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:36</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>제곱미터 평수환산</t>
+          <t>나는 솔로 5기 단발좌</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eraserhead</t>
+          <t>애씨드번</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -570,27 +570,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>스포츠</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[NBA] 서브룩은 근데 르브론이 선택한 결과라</t>
+          <t>윤석열은 도대체 그 많은시간동안 공부 안하고 뭐했나요?</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>어나더데이</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -608,22 +608,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>안철수가 바보가 아닌 이상...</t>
+          <t>다음댓글에서 안철수를 응원하는 것도 보네요 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>방랑나그네</t>
+          <t>유상무상무</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -636,27 +636,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이준석이랑 젊은 남성표랑 상관 없습니다</t>
+          <t>여성 300명이 비혼의 삶을 결정한 이유...jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MENSOL</t>
+          <t>체크메이트</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -669,27 +669,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>투썸 시그니쳐 케익은 어떤건가요?</t>
+          <t>&lt;팩트체크&gt; 윤석열 "무릎 꿇고..." 글에 故 김근태 의장 측근들 "삭제해라" 관련</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사자호랑이</t>
+          <t>스치듯노을</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -702,32 +702,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이재명 전작권 환수는 왜 까는 건가요?</t>
+          <t>한해 주식 수익 인증.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>풍다우주</t>
+          <t>이아시스</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -737,27 +737,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>더쿠는 설강화 관련 고소로도 아직 정신을 못차렸군요</t>
+          <t>이준석의 습관적 몽니, ‘분열의 정치’…‘정권교체 망친 역적’이라는 주홍글씨</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>리도리오</t>
+          <t>이더아버지</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -777,27 +777,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>이재명 5년.. 너무 힘들것 같아 걱정입니다. 거의 확정인거 같은데..</t>
+          <t>윤석열 "지지율 낙폭? 잘 모르겠다..국민만 바라봐"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tolgate</t>
+          <t>카락스캐논</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -807,27 +807,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>안철수 지지율은 계속 올라갈겁니다</t>
+          <t>페퍼는 시즌 끝나고 무조건 FA 영입 해야할듯요</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>하드보드</t>
+          <t>K-D-B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -845,26 +845,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>보수올드 유튜버들은 진심으로 국힘이 선거지기를 바라는걸수도..</t>
+          <t>안철수와 단일화 협상한다면</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>breakth</t>
+          <t>이건못참쥐</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,33 +875,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이재명 경제 멘토 ㄷㄷ .jpg</t>
+          <t>근데 한여름에 행군하다가 컵라면 주면</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>리드옵푸</t>
+          <t>롹몬스터</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -913,28 +913,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>윤 + 안 한다고 1+1 =2 될 거란 보장이 없죠</t>
+          <t>압도적 정권교체ㅋ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>블루모스크</t>
+          <t>krahalt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -948,27 +946,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>윤은 이제 돌이킬수없고 찢통령 취임각?</t>
+          <t>그동안 윤석열 밀어서 죄송합니다</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>steve1011</t>
+          <t>송아지123</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>139</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -978,32 +976,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>다들 동영상 플레이어 어떤거 쓰시나요?</t>
+          <t>누가 더 잘생겼나요?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>쑥버무리</t>
+          <t>정보맨</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1013,32 +1011,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>농구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[NBA] 릅신 지금 플옵 모드로 기어 올린건가요?</t>
+          <t>이재명이 민주당 최약체 아니었나요?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>넌나에게목욕값을줬어</t>
+          <t>페미니스트</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1048,33 +1046,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>암환자들은 돌아가실때도 고통스럽게 생을 마감하나요?</t>
+          <t>영어 공부에서 문법(Grammar) 중요할까요?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>쿠우쿠우</t>
+          <t>Unilever</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1083,32 +1079,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>부산 홈플러스 사고 벽이 블럭인건 신기하네요.</t>
+          <t>윤석열은 전광판 본다 안본다?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>킹주홍</t>
+          <t>석열지키미</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1118,31 +1114,33 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>한동훈 중앙지검장 해야될텐데</t>
+          <t>의대나온 아저씨 공대나온 아저씨</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>아스큐레</t>
+          <t>castelob</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1151,32 +1149,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>시사</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>전작권 환수하고 연합사 유지하고 주한미군은 계속 주둔하는 대신</t>
+          <t>이석기 풀려나니 김재연도 전화 돌리는건지. ㅋ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>내사랑민초</t>
+          <t>3할정은원</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1189,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>안철수 윤석열 후보단일화는 꼭 해야죠~^ ^</t>
+          <t>근데 한편으론 신지예 대단한게</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>하여가</t>
+          <t>스파르타99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1221,32 +1219,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>코나가 작년과 마찬가지로 올해도 판매량 1위 찍겠네요.</t>
+          <t>안 철수 외고 자사고 폐지 백지화? 공약이네요</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>흉기차오너</t>
+          <t>말뚝이</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1256,32 +1254,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>모니터 27 쓰다가 32쓰면 체감있나요?</t>
+          <t>가세연 코인 빨아먹기 기술 하나는 정말 예술이네요</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>나이스찬스</t>
+          <t>ganjikim</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>113</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1291,27 +1289,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>서울시장 되기 전까지 오세훈도 엠팍 조롱거리였었죠</t>
+          <t>헬스 쇠질 전에는 정적스트레칭이 아닌 동적 준비운동을</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>백설신화</t>
+          <t>리드옵푸</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1331,22 +1329,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>안철수 미는 사람들 극소수 있는거 같은데</t>
+          <t>경찰과 순찰 돌던 尹 "순찰돌다 한 잔 땡기면 어떡해요?"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>로얄제리</t>
+          <t>폴라포123</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>337</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1361,31 +1359,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>단문</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>이재명 테마주 위례-삼동선 소개해드립니다</t>
+          <t>폐인에게 동기부여될 말좀 한마디씩부탁합니다.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>dlrndlrn</t>
+          <t>뒷돌려까기</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1399,27 +1399,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>좌담보니 전작권 환수와 주한미군 철수를 동일하게 보는 분들이 많네요?</t>
+          <t>윤석열 때문에 정권교체를 실패하겠네요</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>답답한롯데</t>
+          <t>약수</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1429,31 +1429,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>얀센 부스터 화이자 24시간지남</t>
+          <t>현역프로야구선수가 백신안맞으면 욕먹을일인가요?</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>화요41</t>
+          <t>록사나</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1467,28 +1469,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>삼청교육대 부활한다면 찬성 ?반대?</t>
+          <t>이것이 정치다 보는데 이경 더라이년 공수처 쉴드치는거보니 국민의힘 밀어줘야됨</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>헉슬리교관</t>
+          <t>엉뚱한남자</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1502,27 +1502,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>윤 지지율보다 더 절망적인 오늘 여조 지표.jpg</t>
+          <t>근데 대깨준은 무슨말인가요?</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>alskdjfh</t>
+          <t>mugpi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1532,32 +1532,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>홍준표로 후보교체해서 지지율 지면 어케하나요?</t>
+          <t>정치인들 담배 피는 사람 누구 있나요?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>진공청소기</t>
+          <t>앵재</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1567,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>경기도 사업가, "이번 대선은 범죄자와 바보의 행진"</t>
+          <t>연예대상 최우수상자 VS 100만 유튜버</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>아이슬란드</t>
+          <t>인디아나존</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>유머</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>24살 여자가 초등학교 남학생 성폭행</t>
+          <t>오늘 MBC 연기대상 준호가 대상이라면</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>양웨</t>
+          <t>소소한인간</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1637,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>미술관옆 동물원vs8월의 크리스마스</t>
+          <t>유승민이 축대남에게 고평가받는 이유가뭔가요?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ㅇㅅㅈ</t>
+          <t>보어</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1672,33 +1672,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12월 5주차 여론조사 모음</t>
+          <t>[아이즈원] 흥이 깨졌으니 책임져 술빚는 혜오니소스</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>유효한다섯</t>
+          <t>한화LA응원</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1707,27 +1705,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>가세연 '이준석 성상납'편 조회수 100만 넘었네요</t>
+          <t>코로나 위중증자 기준 아시는분?</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>취미가예언</t>
+          <t>부동산부린</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1742,32 +1740,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>표본 3000명 무선 100% ars 여론조사</t>
+          <t>엠팍 혜자 카드 신한 더모아, 내일부터 신규발급 및 유효기간 연장 중단입니다</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>쓰베로야</t>
+          <t>어느새아침</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1777,32 +1775,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>백신맞고 아무 증세 없으신분들이 대다수겠죠?</t>
+          <t>px 거덜 나는 군대 최악의 식단</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RADIOCURL</t>
+          <t>하이루하이</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>287</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1817,27 +1815,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>썩은열이는 안철수하고 단일화하고 사퇴해야 정권 바뀌는걸 모르나?</t>
+          <t>김한길 영입등의 윤석열의 행보는 대국민 사기쳤다고 봐도 되는 수준인가요</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>러브지니</t>
+          <t>ellibro</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1847,32 +1845,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>아 슈로대30 진짜 레벨올라가는거 감당 안되네요</t>
+          <t>갤럭시a52s 정말 대만족 입니다</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>인증회원</t>
+          <t>강흑호</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1882,32 +1880,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>카드나 대출 상환금액 연체 상환? 해보신분??</t>
+          <t>[여자친구,VIVIZ] “WINTER FILM” BEHIND THE SCENES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PRabbit</t>
+          <t>소울키퍼</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1917,32 +1915,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>오늘 정치왓수다는 준스톤 특집이네요.</t>
+          <t>경희대 공대면 공부 꽤 잘한건가요?</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>#RE2PECT</t>
+          <t>aqbuck</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1952,32 +1950,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>농구</t>
+          <t>음식</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>조던 워싱턴 시절은 잘 몰랐는데</t>
+          <t>오늘의 저녁.jpg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>qwerty1</t>
+          <t>J.Cueto.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1992,27 +1990,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>윤석열 비호감 + 무능 이미지 탈피가 우선 같네요</t>
+          <t>[속보] 윤석열 "지지율 낙폭? 잘 모르겠다..국민만 바라봐"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>꿈꾸는청춘</t>
+          <t>seizeday</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>774</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2022,31 +2020,33 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>영화</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[트와이스] 211226 묘돌프 미나.jpg</t>
+          <t>탑건의 전투기 F-14 톰캣</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>미나</t>
+          <t>풍다우주</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2060,27 +2060,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>지금 여러분들이 큰 착각 하고 있는게</t>
+          <t>이재명이 대통령이 되면....베네주엘라 처럼 된다.......</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>모두의축제</t>
+          <t>조용못해요</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2090,32 +2090,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>주식</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>내일 국장 영업 안하나요?</t>
+          <t>시트콤 역대급 난이도 밸런스 게임.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>아이스아메리카노1</t>
+          <t>꼴까닥</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>447</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2125,33 +2125,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>김건희 사과이후 첫 여론조사</t>
+          <t>농구 관람 질문</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>메비우스7</t>
+          <t>부산이좋아</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2160,32 +2158,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>그냥 이재명 당선 되었다 생각하고 살래요.</t>
+          <t>김병현의 메이저리그 성공은 투구폼 영향도 크지 않나요?</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>swksoo</t>
+          <t>롹몬스터</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2195,32 +2193,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>이재명이 당선되는것보다 더열받는것은</t>
+          <t>올해 주식수익율이 6.82프로네요</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>샤르호스트</t>
+          <t>윈또삐</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>179</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2235,27 +2233,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>민주당 5년 더 잡으면 인도네시아에게 설마 밀리는건 아니겠죠?</t>
+          <t>신지예는 페미니스트라면서 왜 성접대 의혹 이준석을 비판하지 않나요?</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>슈피트</t>
+          <t>영웅오타니</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>108</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2265,31 +2263,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>동물</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>지형지물을 잘 이용하는 개싸움.....gif</t>
+          <t>“침대에서 연명” 609㎏ 사우디 남성, 10여년만에 63㎏ ‘대변신’</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>럭셔리Life</t>
+          <t>베이비로션</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2298,32 +2298,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>22살 여대생의 첫성형</t>
+          <t>페퍼에서 조송화 영입까지 고민했다니 심각하긴 한가보네요.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>즐감즐감</t>
+          <t>백승수</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>118</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2338,27 +2338,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>안철수로 단일화안할거면 절대 안됨</t>
+          <t>민주당 장기집권하겠네요</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>마르테</t>
+          <t>잠자리</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>282</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2368,33 +2368,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>국힘 샴페인 너무빨리 터트린듯</t>
+          <t>[오마이걸] 효정이랑 비니 노래 너무 좋네요</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Drkim</t>
+          <t>zxc124</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2408,27 +2406,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>윤석열은 지지율 1퍼 나와도 단일화 안합니다</t>
+          <t>윤석열 이상하다고 그렇게 타커뮤에서 난리였구만</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>반동각</t>
+          <t>꿈꾸는청춘</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>407</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2438,32 +2436,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>현재 거리두기 3주 연장이네요.JPG</t>
+          <t>지방 살면 무시당하는게 젤 크죠</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rocal</t>
+          <t>페미니스트</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,079</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2473,32 +2471,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>아직 확률 50% vs 50% 맞아요.... 찢 한계가 40%</t>
+          <t>예로부터 물의를 일으키면 유방까는 영화 나오는게</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>할룽</t>
+          <t>대복성자1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2508,33 +2506,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>프로토</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[프로토] 토사장 오늘 승부보는데요?</t>
+          <t>설강화 사태 보니 정말..</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>육서영</t>
+          <t>goldom18</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2543,33 +2539,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>음식</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>가로세로연구소, 30일 6시 이준석을 특가법( 알선수재죄 ) 위반 혐의로 서울중앙지방검찰청에 고발합니다..</t>
+          <t>내가 생각하는 대한민국 편의점 퀄리티 순위.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>레이먼드</t>
+          <t>내사랑삼성</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2578,32 +2572,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>주번나</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>여수 연봉 4천 vs 서울 연봉 2400</t>
+          <t>노브라로 팔벌려 뛰기 gif</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>나지완쏴</t>
+          <t>삼성래미안</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>851</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2613,33 +2607,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>이재명 당선대비 부동산 포트폴리오 맞췄는데 어떤가요?</t>
+          <t>우리 징징이</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>dlrndlrn</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2648,32 +2640,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>연산동 추락같은 사고 운전자는 면허몰수해야되지않나요</t>
+          <t>수많은 지방사립대 사람들은 졸업후 식당차린</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>용각산쿨</t>
+          <t>castelob</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2683,32 +2675,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>펌글</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>엘베서 흡연한 남성 3명…아파트측 '사진 박제' 참교육</t>
+          <t>김광현 투구폼.gif</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>아침방송</t>
+          <t>Rossoneri</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>469</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2718,33 +2710,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>주식</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>형들 주린이도 올해 수익 인증합니다!!!!</t>
+          <t>지방갈일이 생겼는데 요즘 휴게소식당</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>상도동</t>
+          <t>mclarengtr</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2753,33 +2743,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>민주당 정권연장되면 치안은 확실히 망가지는거 체감될듯.</t>
+          <t>허위사실로 설강화 까던 인간들 고소 당했군요 ㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>슈피트</t>
+          <t>게장정식</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2788,33 +2776,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>만약에 윤석열이 안철수에게 대권후보 양보하면 킹정인가요?</t>
+          <t>JTBC 법무팀, DC에도 설강화 허위사실유포 강경대응 공문 ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>보스워스</t>
+          <t>스톰트루퍼</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2828,27 +2814,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>어르신들 윤석열이랑 안철수 단일화 해도 져요</t>
+          <t>정권교체 나가리죠? ㅠ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>realmestar</t>
+          <t>medbob</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>183</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2858,31 +2844,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>근데 본인이나 부모님 호남 연고이신 분들 이재명 지지하세요?</t>
+          <t>세브란스 병원이 엄청 크네요</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>롹몬스터</t>
+          <t>거미가줄</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2896,27 +2884,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"윤석열 소환, 조사 방식과 순서 따라 검토 중"</t>
+          <t>여기 대깨윤들 신지예 영입하고도</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gwjudf</t>
+          <t>TBrays</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2931,27 +2919,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>문재인 정부 지지율이 50%였다고 가정해서 대선 치루면</t>
+          <t>강용석고발내용보면 이준석사건도 웃기긴함</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>적절한사람</t>
+          <t>맨유지성</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>257</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2961,32 +2949,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>고대 그리스 벽화가 큰 고추혐오를 여실히 보여주죠</t>
+          <t>홍준표 지지자들이 안철수로 많이 가는 모양이군요</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>뮤츠</t>
+          <t>shitfnice</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2996,32 +2984,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>역사</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>윤석열 비슷한 오대십국 왕 유숭</t>
+          <t>안철수 윤석열 단일화 하면은 안철수 표  윤석열로 얼마나 올것 같나요?</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>클베랑은화해불가</t>
+          <t>포지티부마잉</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3031,32 +3019,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>윤과 망한길이 생각했던 반문연대.jpg</t>
+          <t>요즘 멜로드라마 여주 1순위는 누군가요</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>자각몽</t>
+          <t>올타이머</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3066,31 +3054,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>청바지 샀는데 좀 기네요</t>
+          <t>4050대 김대중 디지털산업화 최대수혜자 2030대 노무현 한류민주화</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>encrean</t>
+          <t>힉스입자</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3099,32 +3089,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>후보가 여론의 추이도 모르고 판세도 모른다면 후보 교체 해야한다고 봅니다</t>
+          <t>회사에서 종무식 메타버스로 한다고 나대는데 진짜 돈 아깝네요</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>야탑돌아이</t>
+          <t>테린이</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>126</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3134,32 +3124,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>윤석열39.5%  vs  이재명39.4%</t>
+          <t>음주운전 구새봄 아나운서 복귀.gisa</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>빈이팜</t>
+          <t>미국산한우</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>662</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3169,33 +3159,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>최근 대선 단일화 보면 안철수가 가능성 높죠</t>
+          <t>ONE OK ROCK 이 그룹은 노래도 뮤직비됴도 영어로하네요.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>방랑나그네</t>
+          <t>꽁보리밥</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3204,33 +3192,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>어제 채널a 이재명 인터뷰 중 제일 웃겼던거</t>
+          <t>액셔니스타 장진희도 연습하고 있겠죠?</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>아스큐레</t>
+          <t>스포츠평화</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3244,27 +3230,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>윤장군각하께서는 범죄자 때려잡던 이력이 있어서 그런지 화끈하십니다요...</t>
+          <t>깜짝..안철수 다음 댓글 근황....jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>不滅의虎王</t>
+          <t>디다닥뽀닥</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>663</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3274,27 +3260,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>아이돌</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>우크라이나 모태솔로 여대생 클라스</t>
+          <t>[트와이스] 정연 뉴짤.JPG</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>풍다우주</t>
+          <t>정연악개</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3309,33 +3295,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>프로토</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>근데 단일화도 윤석열이 안해주면 끝 아닌가요?</t>
+          <t>[NBA] 낼 타이불이 하든 막으면 필라가 할만하지 않을까요</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>홈런안타</t>
+          <t>루비.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3344,32 +3328,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>야구</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>오미크론이 감기수준의 코로나라는데 사실일까요?</t>
+          <t>BK 투구폼.gif</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RADIOCURL</t>
+          <t>Rossoneri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3379,32 +3363,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>요즘 20대나 30대 초반 남자들도</t>
+          <t>이재명 찍는 사람 vs 윤석열 찍는 사람 누가 더 노답</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>아는행님</t>
+          <t>인디아나존</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>161</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3419,27 +3403,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>국힘은 대선지더라도 자기 권력안놓을거고 안철수도 이번에 또 양보하면</t>
+          <t>윤석열  화이팅 !!</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>킹갓자욱</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3449,32 +3433,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>여수 연봉 7,000 vs 서울 3,500 의외로 전자하고 후회하는 사람 꽤 있어요</t>
+          <t>지금 저 여유로운 윤캠 태도는 단일화를 염두에 둔듯 ㅇㅇ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>시로코</t>
+          <t>우울한새벽</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>190</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3484,33 +3468,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>영화</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>남자는 입잘터는게 제일중요</t>
+          <t>영화 해피뉴이어 보고왔습니다..</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>wmsiwid</t>
+          <t>다미루미</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3519,31 +3501,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>윤석열이 안철수한테 잡혀야 재미있을텐데</t>
+          <t>고속도로1차선에서 속도내고</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>러브지니</t>
+          <t>땡잡이</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3552,32 +3536,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>갤럭시 s 10 5g vs 갤럭시 s 21 차이 엄청나겠죠?</t>
+          <t>이재명이 이명박과 유사한 효과를 누리네요</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>dksrudwja</t>
+          <t>훔바</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3592,27 +3576,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>안철수 단일 후보는 사실상 불가능</t>
+          <t>난 대깨윤도 아니고 대깨준도 아님</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>엑슬로즈</t>
+          <t>gothim</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>118</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3622,32 +3606,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>안철수가 대통령 되는것도 괜찮지 않나요?</t>
+          <t>자동차에서 잔고장이란 게 뭔가요?</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>입체감</t>
+          <t>A380</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3657,32 +3641,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>방금..김여사</t>
+          <t>문재인 정부 임기 5년 잘한 일…"없다" "모른다" 과반수</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>재용이형</t>
+          <t>입체감</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>251</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3692,33 +3676,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>코인</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>윤석열로 단일화가 아니라 안철수로 단일화 해야죠</t>
+          <t>코인이 당분간 망할수 없는이유.txt</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MENSOL</t>
+          <t>최양락</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3727,32 +3709,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>윤석열 대통령 되도 문제네요</t>
+          <t>김민재, 쉬페르리그 전반기 베스트 선정</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>天界</t>
+          <t>블루모스크</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>117</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3767,22 +3749,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>후보교체 주장 유튜브 채널</t>
+          <t>문재인 정권에서 손해보신분 많으신가요? 이득보신분들도 있으실텐데~</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>커피프레스</t>
+          <t>다니1246</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3802,27 +3784,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>신지예 신났을듯</t>
+          <t>이런게 신성로마제국인가요</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>댓어보이</t>
+          <t>대제학</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3837,26 +3819,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>40대 고학력 여성 대깨명을 아는데,</t>
+          <t>"문재인 국정지지율 47%로 연중최고…사면·방역 등 영향"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>피자아저씨</t>
+          <t>박단단</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3870,27 +3854,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>진짜 왜 하필 김한길임?</t>
+          <t>윤석열 뽑는다는 애들은 빨갱이들인가요</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>불랑기포</t>
+          <t>백루타예약</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3900,32 +3884,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>국힘과 안철수 단일화 진짜 힘들죠</t>
+          <t>쇼핑하다 죽을 뻔.....gif</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>블루모스크</t>
+          <t>럭셔리Life</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>832</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3935,31 +3919,33 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>쿠와타 노래중 가장 좋아하는 명곡</t>
+          <t>성인 4명 식사메뉴 뭐가 더 괜찮아 보이나요</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>홈스틸</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -3973,27 +3959,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>신지예 얘는 이재명 대통령님이 위원장 자리하나 주실 듯</t>
+          <t>국민의힘 “남학생 술 먹느라 학점 안나와” 발언 논란</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>송아지123</t>
+          <t>불펜전도사</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>458</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4008,27 +3994,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>윤석열이 우세한 커뮤니티 있어요?</t>
+          <t>윤석열 가장 큰 문제가 대깨윤이 적어서 문제 아닌가요?</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>swksoo</t>
+          <t>국사강의</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4038,31 +4024,33 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>이준석 탄핵 시위 근황</t>
+          <t>방학 때 컴활 1급 필기 공부하려고 하는데 그냥 문제집 사고 바로 시작하면 되나요?</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ganjikim</t>
+          <t>슴가보이</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4076,26 +4064,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>이재명, TK 찾은 김혜경 칭찬 "결혼 잘했다는 생각 더욱 더 들어"</t>
+          <t>이재명은 자식도 사실상 남이라고하는데</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>포지티부마잉</t>
+          <t>LG Twins.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4104,32 +4094,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>근데 안철수가 단일화 해주나요?</t>
+          <t>드라마 설강화 논란 요약</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>입체감</t>
+          <t>JJ타이거즈</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>314</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4139,32 +4129,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>스포츠</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>포르투갈 축구의 위엄.jpg</t>
+          <t>윤석열 후보 진짜 스파이 아닌가요?</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>쉬보레오</t>
+          <t>ToLove</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>232</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4179,26 +4169,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>지금 축구 중계하나여?</t>
+          <t>아들이 남이면 장제원 선거운동 가능하단거네</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>gothim</t>
+          <t>강한빛</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4207,33 +4199,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>짤방</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>마통도 대출인가요??.JPG</t>
+          <t>안철수 '10% 지지율'의 충격파…요동치는 대선 정국</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>jikjik</t>
+          <t>Syntax</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4242,27 +4232,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>그래도 올해 주식 플러스네요</t>
+          <t>야권단일화는 윤석열과 안철수 모두가 바보가 아닌 이상 된다고 보는게 맞다. 두 사람 모두 정권교체에 실패한 경우 더 이상 미래가 없는 상황이다</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>v2빙그레</t>
+          <t>레이먼드</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4282,28 +4272,26 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>삼프로tv 조회수는 점점 벌어지네요.jpg</t>
+          <t>박근혜가 조국 저격한거가지고도 ㅋㅋ 윤석열 저격이라고</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FCLG트윈스</t>
+          <t>킹갓자욱</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>868</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4312,32 +4300,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>엄대엄 대결 가면 보수가 이깁니다.</t>
+          <t>레노버 P11 이 노트9보다 성능이 떨어지나요?</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>아스큐레</t>
+          <t>ㄷㄷㄷㅈ</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>167</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4352,27 +4340,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>윤석열 삽질에 질린표가 그대로 안철수에 간건데 뭔 단일화는</t>
+          <t>윤석열의 삽질은 삼국지 가정에서 등산한 마속 정도일까요?</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>봉신</t>
+          <t>ellibro</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4382,31 +4370,33 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>오후에 푸는 영어문제 ㄷㄷ</t>
+          <t>단일화 하면 이길수 있을거라 생각하고 카드 만지작 거리는게 겁내 웃기네요 ㅋ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>테헤란</t>
+          <t>bitter</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4415,32 +4405,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>앞으로는 정치 쌩신인은 대통령 후보로는 안뽑아줄듯요</t>
+          <t>고양이가 방화범, 인덕션 ‘꾹’ 눌러 발생한 화재... 서울서 3년간 107건</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>밀레니엉</t>
+          <t>컹컹컹컹</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>307</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4450,32 +4440,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>프로토</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>이재명 직속부대로 10만 시민특보단 활동시작하면</t>
+          <t>프로토간만에 가봅니다.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>킹갓자욱</t>
+          <t>프로토배터</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4485,32 +4475,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>짤방</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[15] 란제리 모델.....gif</t>
+          <t>이름 멋있는 지명 뭐 있나요?</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>럭셔리Life</t>
+          <t>하이슬기</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1,350</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4520,32 +4510,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>벽뚫고 5층에서 추락한 택시</t>
+          <t>윤석열 선대위 이 개가튼...</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>hoga</t>
+          <t>스파르타99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>350</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4555,32 +4545,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>새시대위원회 홈페이지는 게시판도 없네요.</t>
+          <t>낼은 미장 쉬나요?</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Captain Jack</t>
+          <t>테린이</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>404</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4595,27 +4585,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>정치풍자 짤방 질문</t>
+          <t>윤석열은 국힘 오지 말고 김한길, 신지예랑 신당차려서 나왔어야죠</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>pjses</t>
+          <t>송아지123</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>238</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4630,27 +4620,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>단일화...아직 찰스맛을 못보셨나보네요...</t>
+          <t>이준석을 내치든 데려오든 신지예를 내쫓고 결정할일ㅋㅋ</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>방랑나그네</t>
+          <t>ROKIS</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4660,32 +4650,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>내일 생애최초 자동차검사받으러 가네요</t>
+          <t>안철수로 단일화 vs 윤석열로 단일화 어느쪽이 승산있나요</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>헤이~*</t>
+          <t>ssangpi</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4695,32 +4685,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>주번나</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>대기업에 대한 무자비한 과세로 삼전도 박살날겁니다.</t>
+          <t>2021년 자체평가 올해의 스샷.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>게스왓</t>
+          <t>논리왕전기</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>832</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4730,32 +4720,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>신지예.. "윤석열 잘하고 있다"</t>
+          <t>왜 그렇게 싫은가... 벤투 감독이 K리그 득점왕도, MVP도 안뽑는 이유는?</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>seizeday</t>
+          <t>로맨틱70</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>362</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4765,27 +4755,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>뇌절이 여기서 온 줄도 모르고 쓰는 사람도 많겠죠?.jpg</t>
+          <t>윤석열의 악수...이수정, 신지예, 김민전</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>참말맨</t>
+          <t>독보행</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>235</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4800,32 +4790,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>고대 그리스의 동성애 찬양 ㄷㄷㄷ</t>
+          <t>말머리 정치 차단 어떻게 하는건지..</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>뮤츠</t>
+          <t>초오좌</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4835,32 +4825,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>여기계신분들 바디워시 뭐 쓰시나요?</t>
+          <t>박근혜 전 대통령이 윤석열을 저격했군요</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>heimishxx0712</t>
+          <t>gs불매</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>785</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -4870,32 +4860,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>부산 연산동은 서민동네 인가요??</t>
+          <t>윤석열이 이준석 잡을 깜냥이 아니죠</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>하이슬기</t>
+          <t>꿈꾸는청춘</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4905,32 +4895,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>방송</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>mbc 연기대상 마지막 불꽃.jpg</t>
+          <t>신지예 찐이군요 ㅋ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>미라클곰</t>
+          <t>TBrays</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>717</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4940,32 +4930,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>스포츠</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>김민재  나폴리 정도면 빅클럽인가요??</t>
+          <t>아버지가 전립선 암 의심이 되네요,,</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>407751968</t>
+          <t>단장</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>310</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4980,27 +4970,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>통일부 달력에 '김일성 생일' 기재..野 "기념일까지 챙겨줄 건가"</t>
+          <t>윤 왜이리 핀트 못잡을까요?</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>레이먼드</t>
+          <t>June</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5010,32 +5000,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>이준석, 반년 만에 당 혁신의 상징에서 리스크로</t>
+          <t>애초에 전시작전권은 미국이 갖고 있는 게 걍 최고죠</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Syntax</t>
+          <t>A380</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5045,32 +5035,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>신지예 "성폭력 종식 위한 유일한 길은 윤석열"</t>
+          <t>밴드 오아시스의 핵심은 결국 노엘이었네요</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>갸아성범</t>
+          <t>녹차맛식빵</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>166</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5085,27 +5075,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>국힘의원들 여론 보는데 왜 국힘갤러리 가나요?</t>
+          <t>[단독] 朴 옥중서신엔 "거짓 빠진 사람이 나랏일 맡을순 없다"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>나비완</t>
+          <t>다솜</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>876</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5120,26 +5110,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>국힘갤  선거망친 주범들은 보아라</t>
+          <t>국민은 찢에게 면죄부를 부여하였습니다</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>파르나스</t>
+          <t>으쿵이</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -5148,32 +5140,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[아이즈원] 에잇디 엔터테인먼트 고소공지.jpg</t>
+          <t>박은빈 모쏠이라는 루머 사실일까요?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>머룬</t>
+          <t>medbob</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>384</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5183,32 +5175,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>단문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>연산동 추락사고 마트 외벽보상은 누가해주나요</t>
+          <t>윤석열이 이재명 이길 방법이 남아있긴함? ㅇㅇ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>용각산쿨</t>
+          <t>우울한새벽</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>262</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5218,32 +5210,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>코인</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>이제 비트코인이랑 완전히 동기화된 코인이 많이보이네요</t>
+          <t>부동산 방구석 ㅈ 문가형들 윤석열 질거같은데 질문좀요</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>이일삼</t>
+          <t>킹구라1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5253,32 +5245,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>시사</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>부산 추락사고가 고령운전자 라고 하네요..</t>
+          <t>잘 안알려진 독일의 만행</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>wp8958</t>
+          <t>양웨</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>326</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5288,31 +5280,33 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>내일이면 올해 마지막 날이네요</t>
+          <t>윤석열은 친미반중, 총선은 한중전 이런 프레임으로 나가면 필승인데 아직 이 작전을 안쓰네요</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>프우</t>
+          <t>CK11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -5321,27 +5315,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>방송</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>올해 하반기 jtbc 드라마</t>
+          <t>너구리라면이 맛있나요</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>UpShoot</t>
+          <t>이제훈</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>160</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5356,31 +5350,33 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>프로토</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>로마에서도 박히는 죄가 컷습니다</t>
+          <t>국경.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>반동각</t>
+          <t>닭</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5389,32 +5385,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>연예</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>단일화 있어서........ 아직 모릅니다..... 이재명도 37~39%에요</t>
+          <t>의외로 연기 곧잘하는 가수.JPG</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>할룽</t>
+          <t>화요41</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>592</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5424,32 +5420,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>유머</t>
+          <t>펌글</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>여자설이 따라붙는 인물</t>
+          <t>호불호 갈리는 남자친구 jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>양웨</t>
+          <t>삼성래미안</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1,010</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5459,32 +5455,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>단문</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>코스트코는 평일 낮에가도 사람이 바글바글...</t>
+          <t>버스 탈 때 이거 저만 열받나요?</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>킹갓자욱</t>
+          <t>스칼렛위치</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>285</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5499,27 +5495,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>이재명이 최근에 보이는 행보.jpg</t>
+          <t>정권교체 절대 안 일어납니다</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>더락이즈</t>
+          <t>스펙갑</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>338</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5529,32 +5525,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>연세대 대기업이랑 건국대 회계사 비교하면 뭐가 더 낫나요?</t>
+          <t>힘들게 바지 입기................gif</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>모이스쳐</t>
+          <t>럭셔리Life</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>893</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5569,27 +5565,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>살다보니 안철수를 지지하게되는 날이 오네요ㅋㅋㅋㅋㅋ</t>
+          <t>3000명 표본 여조는 거의 반반이군요</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>zhfem</t>
+          <t>갓희수</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>406</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5599,32 +5595,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>주식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>금년 주식결산.jpg</t>
+          <t>이준석은 뭐하러 까는 건가요??</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>台獨港獨</t>
+          <t>개답답</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5634,33 +5630,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>노트9 액정 28만원주고 갈앗는데 또 나갓습니다ㅠ 중고폰 추천좀해주세요</t>
+          <t>방역관련 질문</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>보니하니</t>
+          <t>쩌잇</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5674,22 +5668,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>굿바이 이재명 책소개 보니 필독서 같아요.</t>
+          <t>단일화던 사퇴던 빨리 하자</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>tolgate</t>
+          <t>비질란태</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -5702,31 +5696,33 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>저도 해보는 올해의 걸그룹 수록곡 5개.</t>
+          <t>이재명 대통령도 물론 싫지만</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>곰독수리</t>
+          <t>진보대학샹</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -5735,32 +5731,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>개유명한 갈비탕 . jpg</t>
+          <t>10년전 전투기 도입사업 다큐보는데 간첩들 많았네요</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>멘탈킹</t>
+          <t>풍다우주</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1,074</t>
+          <t>286</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5775,27 +5771,27 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>이준석도 답답한게, 성상납 절대 안받았다.확실하게 끊어야지</t>
+          <t>불펜 여론조사 누가 왕이될 상인가요.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>king_no.1</t>
+          <t>케이준</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>414</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5805,32 +5801,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>펌글</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>넷플릭스에 필요한기능.jpg</t>
+          <t>조재현은 컴백 불가능인가요</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>wjdtn</t>
+          <t>adebayor</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>364</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5840,32 +5836,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>유머</t>
+          <t>코인</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>반란에 성공한 기계 제국</t>
+          <t>코인 망할거라고 생각하지만 숏 못치는 이유</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>양웨</t>
+          <t>하이야하이</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>369</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5875,32 +5871,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>여행</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>이렇게 여론조사 애매하게 나오는게 윤한텐 별로지 않나여?</t>
+          <t>가족끼리 양양 왔습니다.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>병호갑</t>
+          <t>서울거인</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>702</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5910,32 +5906,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>이재명 되면 국가전망 예상.</t>
+          <t>해군 입대 앞두고 있는데 이함훈련이 떨리네요.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>슈피트</t>
+          <t>라로스</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>108</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5945,32 +5941,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>이준석은 지무덤 지가 판겁니다.</t>
+          <t>홈플러스 떠돌아다니는 사진이 맞다면 부실공사 같은데요(현직자)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>나이트캐슬</t>
+          <t>썩은내</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>411</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5980,32 +5976,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>응원</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>스키장 가는길 JPG</t>
+          <t>30대초 여자인데 연봉9천이정도 이게 가능한가요?</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>동아닫컴</t>
+          <t>미네트윈스</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>325</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6020,27 +6016,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>이재명 되면 엠팍 없애겠죠?</t>
+          <t>문재인은 개인비리가 없는 편이었죠</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>wpwp012</t>
+          <t>쓰베로야</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>348</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6050,32 +6046,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>고대 한국어 해석 가능? ㄷㄷㄷㄷㄷㄷㄷ</t>
+          <t>내일 대장,위 내시경하는데 죽대신 스프같은거 먹어도 될까요?</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>오토나시</t>
+          <t>김남주</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6085,31 +6081,33 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>이재명이가 당선된 다음에,</t>
+          <t>의외로 윤석열 장모건은 별타격이 없더군요</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>피자아저씨</t>
+          <t>샤르호스트</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -6118,32 +6116,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>윤석열이 잘하는데 이준석의 총질이 그런 엄청난 효과를 냅니까</t>
+          <t>압구정현대 종부세 건보료 엄청 비싸네요</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>팅커테일러</t>
+          <t>castelob</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>329</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6153,32 +6151,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>윤석열 도산서원 방문은 지나치게 까이네요</t>
+          <t>하이닉스 대졸 신입 연봉</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>적절한사람</t>
+          <t>감규리</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6193,27 +6191,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>의외로 이재명 치하는 생각보다 괜찮을 수 있어요</t>
+          <t>의외로 네이버 댓글은 윤석열에 대해서 정상적이네요?</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>몽쉘쉘</t>
+          <t>파이로트</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>327</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6223,32 +6221,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>대법 "檢 공소권 남용 없었다" 조국 동생 징역 3년 확정(종합)</t>
+          <t>여러분들 내일 뭐하십니까?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>컹컹컹컹</t>
+          <t>입다무는법</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6258,32 +6256,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>한국은  정교한 "각색의 나라”  (안 좋은 말로는 주작에 능하다)</t>
+          <t>왜 공수처만 가지고 난리야</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>이놀부아웃</t>
+          <t>podoo</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -6293,32 +6291,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>디아2 오늘의 수확.jpg</t>
+          <t>부산 주차장서 추락한 택시는 어떻게 된건가요?</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>헤이~*</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>332</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6328,32 +6326,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RPG가 정확히 머죠~??</t>
+          <t>일단 안철수 밀어주고.... 탄핵시켜서..... 오세훈으로 가면 되요</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>번개새</t>
+          <t>할룽</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6363,32 +6361,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>고든램지버거 먹으로 부산에서 서울가는거 개오바인가요???</t>
+          <t>북한이 핵을 만들면 전쟁?</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>뉴핸진</t>
+          <t>아야톨라</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6398,32 +6396,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>아재들 패션 특징 ㄹㅇ</t>
+          <t>윤석열 “안철수와 단일화 이야기, 정치인 도의에 안 맞아”</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>하드보드</t>
+          <t>포지티부마잉</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>823</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -6433,32 +6431,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1절,2절,3절,뇌절까지 해버린 소설.jpg</t>
+          <t>윤석열이 모셔온 김민전 근황</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Rossoneri</t>
+          <t>트윈트윈헬</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>615</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6468,32 +6466,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>축구</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>스마트폰 5g 속도가 좀 느린가요?</t>
+          <t>최효진 은퇴</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>입체감</t>
+          <t>Penqueen</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>327</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6503,33 +6501,31 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>삼성 갤럭시S22 울트라(노트) 예상 랜더링. jpg</t>
+          <t>드루킹이 새로 나타났다!! 이것이 무적의 논리.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>정유미</t>
+          <t>프리퀀시60</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -6543,27 +6539,27 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>대선 후보 지지율 ‘서이동윤(西李東尹)’ 현상 뚜렷 [한신협 여론조사]</t>
+          <t>와 이번 대선 진짜 황당하네</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>entus</t>
+          <t>goldom18</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>511</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6573,32 +6569,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>이준석 "尹 '이재명 중범죄자' 발언, 李 지지자 무시하는 것"</t>
+          <t>저도 2021년 결산 수익 공개</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>가자ㅎㅎㅎ</t>
+          <t>하이얀스</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>493</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6608,32 +6604,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>축구</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[해외축구] 난제) 덕배 vs 로이스 누가 더 좋은 선수인가???</t>
+          <t>지금 공수처 사찰사건 보수정권때 터졌으면 대통령 탄핵 소리 나왔겠죠?</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>일이쌈</t>
+          <t>입체감</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>213</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -6643,33 +6639,31 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>그리스 로마 시대에는 음경이 크면 박대했다고 합니다</t>
+          <t>저는 앞으로는 정치 신인은 절대 대통령 후보로 지지안합니다</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>뮤츠</t>
+          <t>밀레니엉</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6683,28 +6677,26 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>10만 혁명군 투입 개시ㄷㄷㄷㄷㄷㄷㄷ</t>
+          <t>위대하신 영도자 윤장군각하께서 드디어 칼을 빼셨습니다...!!!</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>nate185</t>
+          <t>不滅의虎王</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6718,28 +6710,26 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>전남대 전기 전자 취업현황.jpg</t>
+          <t>자영업 ‘거리두기 직격탄’…절반이 월평균 ‘순익 0원’</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>풍다우주</t>
+          <t>icarus13</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>753</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6748,32 +6738,32 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>외국인 싫어 하는 한국 음식</t>
+          <t>이준석의 능력주의가 뭔가요?</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>하이루하이</t>
+          <t>보어</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>293</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6788,28 +6778,26 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>재난문자 꺼놓으시나요? 아님 그냥 받으시나요?</t>
+          <t>저는 오미크론 우세종 1~2월 이후로 코로나 종식될것 같네요</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PlusplusK</t>
+          <t>RADIOCURL</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6818,33 +6806,31 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>신지예씨 활동 잘하시네요</t>
+          <t>멈추지 않는 현대.기아 엔진 결함 문제. 美 당국 또 300만대 이상 조사 착수</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>학교가자</t>
+          <t>mhykyu</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6853,32 +6839,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>암은 가족력 유전이 젤 큰거 같네여...</t>
+          <t>요즘 중딩 인싸들</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>뉴타입</t>
+          <t>입다무는법</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>374</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6888,32 +6874,32 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>후기</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>서로 남탓만 하는 꼴이 진짜 가관이네요</t>
+          <t>해병대 상근출신인데 아무리봐도 상근은 진짜좋은거같음</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>게스왓</t>
+          <t>천국</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6923,32 +6909,32 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>펌글</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>신용폄점 909점/1000점 이라는데 이정도면 어느정도</t>
+          <t>무한한 멀티버스 속 닥터 스트레인지.jpg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>져킹</t>
+          <t>LG팬</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>489</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6958,32 +6944,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>안철수랑 단일화하면 토론 예상</t>
+          <t>중국 리그. 김연경 경기 보는데 재밌네요.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>슈퍼콘</t>
+          <t>백승수</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>127</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6993,32 +6979,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>아이돌</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>모모노기 카나 인스타 업뎃.jpg</t>
+          <t>안철수는 진짜 털어도 먼지하나 안나오나요?</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>참말맨</t>
+          <t>박원순</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>366</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7028,27 +7014,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>배구</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>안전 안내 문자 너무 남발되는 경향있지 않나요??</t>
+          <t>여배) 더스파이크 12월호 표지</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>디오스민</t>
+          <t>무등자폭기</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>260</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7063,33 +7049,31 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>아니 미국이 한국에 주둔하는게 더이상 이득이 안된다고 판단하면</t>
+          <t>그냥 내비두세요. 어차피 이재명 될 거 같은데</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>대복성자1</t>
+          <t>롹몬스터</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7098,33 +7082,31 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>당근에 진짜 여러개 있네요</t>
+          <t>JTBC 설강화 조직적 허위 세력 고소고발 진행중</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>베베랑</t>
+          <t>로츈강류</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7138,27 +7120,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>이재명 대통령 되면 부동산이나 사회전망 어케 보세요?</t>
+          <t>대통령 될려면 최소 광역단체장은 거쳐야 한다고 생각</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>슈피트</t>
+          <t>footsket</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>205</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -7168,32 +7150,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>흙수저 빈민가 사람들은 이재명 찍어야되는게 맞죠??</t>
+          <t>전작권 환수는 북한 지령이 아닐까요?</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>질병관리청</t>
+          <t>hhtwht</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7203,32 +7185,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>이재명 북증서 발급ㄷㄷㄷㄷ.jpg</t>
+          <t>노트9 액정나갓는데 무제한요금제 쓰면 무조건 기변이 답이겟죠?</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>아라우</t>
+          <t>보니하니</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1,095</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7243,27 +7225,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[한신협 여론조사] '대선 빅2' 이재명-윤석열, 0.1%p 차 '오차범위내 초박빙'</t>
+          <t>근데 안철수가 단일화 하면 뭐줄수 있는대요? 라고 딜치면 답할수 있냐도 문제</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>꺼져라잉</t>
+          <t>파이브툴</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>115</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7273,31 +7255,33 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>단문</t>
+          <t>짤방</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>혹시 스벅 프리퀀시 빨강 스티커 남는분 계실까요??</t>
+          <t>신개념 맥도널드 의자(?)....gif</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>잠실LG</t>
+          <t>럭셔리Life</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -7306,27 +7290,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>유머</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>오토바이 배달할꺼면 최소 900만원들어요</t>
+          <t>어떤 지역 생각나게 하는 영화</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>손오천</t>
+          <t>양웨</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -7344,27 +7328,27 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>이재명 "조국 교수, 작은 허물이라도 허물은 허물이다" 큰 허물 처럼 책임져야</t>
+          <t>어설픈 여론조사보고 새시대 해체 안하겠네요</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>컹컹컹컹</t>
+          <t>CMOS</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>213</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7374,32 +7358,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>일상</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>나경원의원이  대선후보 나왔으면  하네요</t>
+          <t>코로나 바이러스가 혹시 야행성인가요?</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>박원순</t>
+          <t>킹갓킹</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7409,32 +7393,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>19금</t>
+          <t>음식</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>고대 이집트에서는 자위행위하면 채찍질했습니다</t>
+          <t>은근히 싫어 하는 사람 많은 치킨.jpg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>뮤츠</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>801</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7444,32 +7428,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>문재인 마지막 신년메세지는 국민통합jpg</t>
+          <t>이준석 어떻게하든지 정리해야 하지않나요?</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>정치몰라요</t>
+          <t>샤르호스트</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -7484,27 +7468,27 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>제가 안철수 단일화에 회의적인건 할배들 대거 이탈할꺼 같아요.</t>
+          <t>집에 액자 뭐 걸어둬야 할까요?</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>더락이즈</t>
+          <t>긴꼬리벵에</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -7514,32 +7498,32 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>이번 대선의 시대 정신이 뭐라 보십니까?</t>
+          <t>드래곤볼 퍼펙트 셀은 초사1으로 절대 못 잡죠?</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>BeanBag</t>
+          <t>크보화이팅</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7549,32 +7533,32 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>비아그라 처방 받을때 마다 느끼는건데</t>
+          <t>윤석열은 일단 김한길 부터 쳐내고 다시 시작해야함</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>쿵더쿠</t>
+          <t>러키</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>183</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7589,27 +7573,27 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>(투표) 윤석열 안철수 단일화..찬성 반대</t>
+          <t>유승민이 나왔으면 지금보다 나았을까요?</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>리드옵푸</t>
+          <t>라푸마</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>279</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7619,32 +7603,32 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>텐동 맛잇나요??</t>
+          <t>이재명은 그래도 문재인보단 잘할거 같아요</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>58375417</t>
+          <t>맞는게좋아요</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>298</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7654,31 +7638,33 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>궁금한게 있는데요 제가 코로나 검사받으면</t>
+          <t>k180이 '근로'라는 용어를 모두 '노동'으로 바꾸려 하는 모양입니다</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>서지수</t>
+          <t>비둘기반반</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -7687,31 +7673,33 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>저의 맛집 기준</t>
+          <t>이준석이만 생각하면 속에 천불이 나네요</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>불량곰돌이</t>
+          <t>함무라</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -7720,33 +7708,31 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>문화</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>핵심은 전작권이 아니라 연합사입니다.</t>
+          <t>사생활하다 여혐걸린 부산대 졸업생</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>그냐안그냐</t>
+          <t>하이루하이</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -7755,32 +7741,32 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>펌글</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>인텔이 공개한 "세상에서 가장 복잡한 기계"</t>
+          <t>JTBC 설강화 허위사실유포죄로 강력대응 예고</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>삼성래미안</t>
+          <t>네드스타크</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7790,32 +7776,32 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>시사</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"남학생 술 먹느라 학점 안나와" 국힘 김민전 발언 뭇매</t>
+          <t>달력에 김일성 생일표기 vs 천황생일표기</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>타스오디라</t>
+          <t>outriders</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7825,32 +7811,32 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>조원씨앤아이 무선ars 100프로 표본3천명 여론조사 결과</t>
+          <t>5시에 퇴근하는직업이 많나요?</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>FCLG트윈스</t>
+          <t>에릭테임즈</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>265</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7860,32 +7846,32 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>뻘글</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>찢재명 깔게 한트럭인데 국힘은 뭐하나요?</t>
+          <t>다들 내일 연차쓰셨나요?</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>꿀단지</t>
+          <t>나비불</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>226</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7895,32 +7881,32 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>19금</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>이재명이 부동산 잡는다는 분들</t>
+          <t>30대 때 1주일 20 자위했다면?</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>화천대유</t>
+          <t>원투원투</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -7935,28 +7921,26 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>제 분석으로는 이준석 입만 막으면 윤석열 대승입니다</t>
+          <t>윤석열 20대 9퍼중 여자 비율은 얼마인가요?</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>백설신화</t>
+          <t>브랑쿠시</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -7965,32 +7949,32 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>단문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>낼 모텔에서 제야의종 치시는 커플들 많겠네요....</t>
+          <t>지금이라도 늦지 않았음 선대위 전원사퇴 새시대 해체 제발 갑시다</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Rammstein</t>
+          <t>더브릿지</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8000,32 +7984,32 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>일본 보수주의자들이 어느 가족이라는 영화 비난한다던데</t>
+          <t>무슨 단일화 말고는 답이없어 ㅋ 답 뻔히 보이는구만</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>적절한사람</t>
+          <t>리플리즈</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>160</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8035,32 +8019,32 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>짤방</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>종이 공예의 달인..........gif</t>
+          <t>국힘이 가세연이랑 엮인게 큰거 같지않나요?</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>럭셔리Life</t>
+          <t>꿈꾸는청춘</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>272</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8075,28 +8059,26 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>이재명 대통령 되면 개헌해서 그 다음 혜경궁, 그 다음 이재명 이것도 가능할거 같은데요?</t>
+          <t>미국 대선 토론과 윤석열 후보</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>llllllllIl</t>
+          <t>Syntax</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -8105,32 +8087,32 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>오토차 변속기 조작 질문좀요</t>
+          <t>사찰 DNA 없다고 자신하던 청와대, 공수처 사찰 논란엔 침묵</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>문화군</t>
+          <t>입체감</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8140,32 +8122,32 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>눈썹문신 같은거 하면 사람 인상이 달라지기도 하나요???</t>
+          <t>후보 단일화하고 극적 합당까지 가야된다고 봄.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>아방가르드</t>
+          <t>보스워스</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8175,32 +8157,32 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>소주성이 ak47이라면 최배근의 돈 무한찍기는 짜르봄바라고 보면 됨</t>
+          <t>우크라이나 하고 러시아는 어떤 관계인가요?</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>불랑기포</t>
+          <t>청소요정</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -8215,27 +8197,27 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>민주당이 일본 자민당화 될수도 있지 않을까요?</t>
+          <t>정신승리</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>슈피트</t>
+          <t>까르보나라</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8245,32 +8227,32 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>부모님 전화 받기가 귀찮은데 정상임?</t>
+          <t>선거일 다되가니깐 대깨문 글 엄청 올라오네요</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>강한빛</t>
+          <t>아이셔캔디</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>218</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -8285,27 +8267,27 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>대통령도 탄핵 됐는데 그깟 후보도 못 바꾼다고요??</t>
+          <t>오거돈, 가세연 겨냥 "불법자금·미투 의혹은 가짜뉴스...모조리 처벌할 것"</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>불꽃정우영</t>
+          <t>이더아버지</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8315,33 +8297,31 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>스포츠</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>닉스 올시즌 큰 부진의 원흉은 선발로 나오는 애들이죠.</t>
+          <t>윤 강성지지자 분들 단일화 떡밥에 목메는게 안쓰럽긴 하네요</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Happy48</t>
+          <t>파이브툴</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -8355,27 +8335,27 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>정권교체될줄알고 썩열이에게 줄 선 유투버들 다 잣됐네요</t>
+          <t>수구 이대남들</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>정치몰라요</t>
+          <t>gothim</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8385,32 +8365,32 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>방송</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>No, Jun Seok.</t>
+          <t>이거 다 놀면 뭐하니 멤버들이 받은 트로피인가요?.jpg</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>gothim</t>
+          <t>넉살마나</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>409</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8420,27 +8400,27 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>뻘글</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2차선에서 정차해논 택시들 gta마렵네요</t>
+          <t>법치주의는 끝나고 유찢무죄의 세상이 옵니다</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>뚜벅이</t>
+          <t>게스왓</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8455,32 +8435,32 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>문화</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1월 1일 휴일 변천사.jpg</t>
+          <t>윤항문 20대 지지율9%뜨고 개같이 멸망한거 보면 웃기네요 ㅋㅋ</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>dkdkdkdkk</t>
+          <t>kdm3</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>395</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -8490,22 +8470,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>조국 동생 징역 3년 선고</t>
+          <t>윤석열 정권 못잡으면 감옥갈까요?</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>웃어요웃어</t>
+          <t>클리앙아웃</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8515,7 +8495,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8530,27 +8510,27 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>후보교체보다는 안철수로의 단일화가 현실적이죠</t>
+          <t>윤후보 반등 했는데요</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>장연</t>
+          <t>f3572</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>535</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8565,26 +8545,28 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>안철수는 진짜 대통령될 마지막 기회긴 하네요</t>
+          <t>안철수 "청년 등골 빼 먹을 연금, 기필코 개혁해야"</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>파이브툴</t>
+          <t>디다닥뽀닥</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -8593,32 +8575,32 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>게임</t>
+          <t>스포츠</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>플스5는 아직도 추첨 판매하네요</t>
+          <t>Nba 랄 최근 경기 4쿼터 라인업.jpg</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>idea_</t>
+          <t>Yonkers</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8628,32 +8610,32 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>더이상 윤과 국힘을 욕하지 맙시다</t>
+          <t>분당 서울대 병원이 메이져 병원인가요?</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>으쿵이</t>
+          <t>아마스빈</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>353</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -8663,32 +8645,32 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>정치</t>
+          <t>19금</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>28살 청년입니다. 이번 대선 누구뽑죠...</t>
+          <t>AV배우가 겪은 최악의 ㅅㅅ</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>전략</t>
+          <t>눈꽃요정</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1,651</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8698,32 +8680,32 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>일상</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>청주에 맛있는 맛집 어디 없나요</t>
+          <t>이준석 임기가 2023년까지네요</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>고막여친</t>
+          <t>적절한사람</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>395</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8733,32 +8715,32 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>VS</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>숫사자 vs 중갑보병 3명</t>
+          <t>이준석처럼 낙하산 꿀빨고 성상납 받는 2030이 없는데</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>어흥이흥이</t>
+          <t>강한빛</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -8773,27 +8755,233 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>커뮤에서 틀틀 거리는건 이해 안감</t>
+          <t>[단독] 朴 옥중서신엔 "거짓 빠진 사람이 나랏일 맡을순 없다"</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>아스큐레</t>
+          <t>민주style</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>663</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>부울경 지지율…윤석열 45.7%, 이재명 35.2% [한신협 여론조사]</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>포지티부마잉</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1,005</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>후보교체가 안될거라 보는게</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>칼버트르윈</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>근데 전작권 반환하면</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>롹몬스터</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>60대 노인네들만 변하면 이기는데... 그게 그렇게 안되나</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>할룽</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>후보교체 주장하시는 분들, 걱정안해도 될듯...</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>gwjudf</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>속보)삼프로 토론 후 충격적 대선후보 지지도</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>메비우스7</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1,045</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
